--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N649"/>
+  <dimension ref="A1:N660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27988,6 +27988,496 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="n">
+        <v>354.2877777777778</v>
+      </c>
+      <c r="E650" t="n">
+        <v>356.6077777777778</v>
+      </c>
+      <c r="F650" t="n">
+        <v>362.7326315789473</v>
+      </c>
+      <c r="G650" t="n">
+        <v>360.9626315789474</v>
+      </c>
+      <c r="H650" t="n">
+        <v>361.0726315789473</v>
+      </c>
+      <c r="I650" t="n">
+        <v>357.9905882352941</v>
+      </c>
+      <c r="J650" t="n">
+        <v>362.4538095238095</v>
+      </c>
+      <c r="K650" t="n">
+        <v>370.0772727272728</v>
+      </c>
+      <c r="L650" t="n">
+        <v>373.14</v>
+      </c>
+      <c r="M650" t="n">
+        <v>458.0045454545455</v>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>313.3233333333333</v>
+      </c>
+      <c r="C651" t="n">
+        <v>327.22</v>
+      </c>
+      <c r="D651" t="n">
+        <v>335.1511111111111</v>
+      </c>
+      <c r="E651" t="n">
+        <v>352.7811111111111</v>
+      </c>
+      <c r="F651" t="n">
+        <v>374.9815789473685</v>
+      </c>
+      <c r="G651" t="n">
+        <v>380.1715789473685</v>
+      </c>
+      <c r="H651" t="n">
+        <v>371.3415789473684</v>
+      </c>
+      <c r="I651" t="n">
+        <v>379.4170588235294</v>
+      </c>
+      <c r="J651" t="n">
+        <v>354.9695238095238</v>
+      </c>
+      <c r="K651" t="n">
+        <v>363.4445454545455</v>
+      </c>
+      <c r="L651" t="n">
+        <v>376.07</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>335.7466666666667</v>
+      </c>
+      <c r="C652" t="n">
+        <v>342.19</v>
+      </c>
+      <c r="D652" t="n">
+        <v>349.3255555555555</v>
+      </c>
+      <c r="E652" t="n">
+        <v>353.0155555555555</v>
+      </c>
+      <c r="F652" t="n">
+        <v>361.9747368421053</v>
+      </c>
+      <c r="G652" t="n">
+        <v>360.6247368421053</v>
+      </c>
+      <c r="H652" t="n">
+        <v>359.7647368421053</v>
+      </c>
+      <c r="I652" t="n">
+        <v>359.3264705882353</v>
+      </c>
+      <c r="J652" t="n">
+        <v>360.4161904761905</v>
+      </c>
+      <c r="K652" t="n">
+        <v>372.1272727272727</v>
+      </c>
+      <c r="L652" t="n">
+        <v>375.29</v>
+      </c>
+      <c r="M652" t="n">
+        <v>467.4545454545454</v>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>365.4642857142857</v>
+      </c>
+      <c r="K653" t="n">
+        <v>374.0081818181818</v>
+      </c>
+      <c r="L653" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="M653" t="n">
+        <v>449.2663636363636</v>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>325.3266666666667</v>
+      </c>
+      <c r="C654" t="n">
+        <v>342.07</v>
+      </c>
+      <c r="D654" t="n">
+        <v>349.8488888888889</v>
+      </c>
+      <c r="E654" t="n">
+        <v>353.0588888888889</v>
+      </c>
+      <c r="F654" t="n">
+        <v>358.088947368421</v>
+      </c>
+      <c r="G654" t="n">
+        <v>359.1789473684211</v>
+      </c>
+      <c r="H654" t="n">
+        <v>353.9389473684211</v>
+      </c>
+      <c r="I654" t="n">
+        <v>356.7952941176471</v>
+      </c>
+      <c r="J654" t="n">
+        <v>355.947619047619</v>
+      </c>
+      <c r="K654" t="n">
+        <v>364.6581818181818</v>
+      </c>
+      <c r="L654" t="n">
+        <v>379.95</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>345.0466666666667</v>
+      </c>
+      <c r="C655" t="n">
+        <v>364.04</v>
+      </c>
+      <c r="D655" t="n">
+        <v>367.7088888888889</v>
+      </c>
+      <c r="E655" t="n">
+        <v>375.5388888888889</v>
+      </c>
+      <c r="F655" t="n">
+        <v>381.4715789473684</v>
+      </c>
+      <c r="G655" t="n">
+        <v>383.1215789473685</v>
+      </c>
+      <c r="H655" t="n">
+        <v>377.4015789473684</v>
+      </c>
+      <c r="I655" t="n">
+        <v>379.2664705882353</v>
+      </c>
+      <c r="J655" t="n">
+        <v>378.4404761904762</v>
+      </c>
+      <c r="K655" t="n">
+        <v>384.94</v>
+      </c>
+      <c r="L655" t="n">
+        <v>394.25</v>
+      </c>
+      <c r="M655" t="n">
+        <v>459.72</v>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>340.7866666666667</v>
+      </c>
+      <c r="C656" t="n">
+        <v>359.62</v>
+      </c>
+      <c r="D656" t="n">
+        <v>361.9222222222222</v>
+      </c>
+      <c r="E656" t="n">
+        <v>368.6822222222222</v>
+      </c>
+      <c r="F656" t="n">
+        <v>374.9405263157895</v>
+      </c>
+      <c r="G656" t="n">
+        <v>378.4905263157895</v>
+      </c>
+      <c r="H656" t="n">
+        <v>377.0005263157895</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>391.8800000000001</v>
+      </c>
+      <c r="M656" t="n">
+        <v>437.6636363636364</v>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="n">
+        <v>370.12</v>
+      </c>
+      <c r="G657" t="n">
+        <v>361.88</v>
+      </c>
+      <c r="H657" t="n">
+        <v>364.22</v>
+      </c>
+      <c r="I657" t="n">
+        <v>378.1447058823529</v>
+      </c>
+      <c r="J657" t="n">
+        <v>363.1204761904762</v>
+      </c>
+      <c r="K657" t="n">
+        <v>387.0127272727273</v>
+      </c>
+      <c r="L657" t="n">
+        <v>390.08</v>
+      </c>
+      <c r="M657" t="n">
+        <v>467.4954545454545</v>
+      </c>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>343.7366666666667</v>
+      </c>
+      <c r="C658" t="n">
+        <v>350.65</v>
+      </c>
+      <c r="D658" t="n">
+        <v>366.4988888888889</v>
+      </c>
+      <c r="E658" t="n">
+        <v>367.4188888888889</v>
+      </c>
+      <c r="F658" t="n">
+        <v>368.9215789473685</v>
+      </c>
+      <c r="G658" t="n">
+        <v>371.2515789473685</v>
+      </c>
+      <c r="H658" t="n">
+        <v>367.9315789473685</v>
+      </c>
+      <c r="I658" t="n">
+        <v>363.7164705882353</v>
+      </c>
+      <c r="J658" t="n">
+        <v>362.1504761904762</v>
+      </c>
+      <c r="K658" t="n">
+        <v>375.34</v>
+      </c>
+      <c r="L658" t="n">
+        <v>388.84</v>
+      </c>
+      <c r="M658" t="n">
+        <v>460.69</v>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>355.0133333333333</v>
+      </c>
+      <c r="C659" t="n">
+        <v>352.91</v>
+      </c>
+      <c r="D659" t="n">
+        <v>358.5444444444445</v>
+      </c>
+      <c r="E659" t="n">
+        <v>362.2244444444444</v>
+      </c>
+      <c r="F659" t="n">
+        <v>366.5542105263158</v>
+      </c>
+      <c r="G659" t="n">
+        <v>372.5142105263158</v>
+      </c>
+      <c r="H659" t="n">
+        <v>369.8742105263158</v>
+      </c>
+      <c r="I659" t="n">
+        <v>363.9964705882353</v>
+      </c>
+      <c r="J659" t="n">
+        <v>365.7452380952381</v>
+      </c>
+      <c r="K659" t="n">
+        <v>373.5627272727273</v>
+      </c>
+      <c r="L659" t="n">
+        <v>388.8200000000001</v>
+      </c>
+      <c r="M659" t="n">
+        <v>457.6354545454545</v>
+      </c>
+      <c r="N659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>342.4233333333333</v>
+      </c>
+      <c r="C660" t="n">
+        <v>345.15</v>
+      </c>
+      <c r="D660" t="n">
+        <v>354.1577777777778</v>
+      </c>
+      <c r="E660" t="n">
+        <v>358.8577777777778</v>
+      </c>
+      <c r="F660" t="n">
+        <v>359.0126315789473</v>
+      </c>
+      <c r="G660" t="n">
+        <v>359.9826315789473</v>
+      </c>
+      <c r="H660" t="n">
+        <v>358.2026315789473</v>
+      </c>
+      <c r="I660" t="n">
+        <v>353.5005882352941</v>
+      </c>
+      <c r="J660" t="n">
+        <v>357.9838095238095</v>
+      </c>
+      <c r="K660" t="n">
+        <v>372.6772727272728</v>
+      </c>
+      <c r="L660" t="n">
+        <v>384.41</v>
+      </c>
+      <c r="M660" t="n">
+        <v>461.2045454545454</v>
+      </c>
+      <c r="N660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27999,7 +28489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34597,6 +35087,116 @@
       </c>
       <c r="B659" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -34765,28 +35365,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3564992738061185</v>
+        <v>0.3540641090239993</v>
       </c>
       <c r="J2" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03113034567118622</v>
+        <v>0.03130310871827835</v>
       </c>
       <c r="M2" t="n">
-        <v>11.39911071974761</v>
+        <v>11.36547945010363</v>
       </c>
       <c r="N2" t="n">
-        <v>212.4287932691937</v>
+        <v>211.3433511672321</v>
       </c>
       <c r="O2" t="n">
-        <v>14.57493716175798</v>
+        <v>14.53765287683098</v>
       </c>
       <c r="P2" t="n">
-        <v>329.463550484328</v>
+        <v>329.4869471792177</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34842,28 +35442,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5344506475357691</v>
+        <v>0.5390191167024181</v>
       </c>
       <c r="J3" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07323165685423749</v>
+        <v>0.07584745659735437</v>
       </c>
       <c r="M3" t="n">
-        <v>11.10312377068299</v>
+        <v>11.06673837085452</v>
       </c>
       <c r="N3" t="n">
-        <v>192.4311674893013</v>
+        <v>191.2404911217899</v>
       </c>
       <c r="O3" t="n">
-        <v>13.87195615222674</v>
+        <v>13.82897288744865</v>
       </c>
       <c r="P3" t="n">
-        <v>332.8631042764781</v>
+        <v>332.8165703754547</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34919,28 +35519,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5048574294610423</v>
+        <v>0.5110701167579594</v>
       </c>
       <c r="J4" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07422678964982177</v>
+        <v>0.07769415234245269</v>
       </c>
       <c r="M4" t="n">
-        <v>10.57896537607596</v>
+        <v>10.51998183809952</v>
       </c>
       <c r="N4" t="n">
-        <v>169.0987714230126</v>
+        <v>167.7194842853387</v>
       </c>
       <c r="O4" t="n">
-        <v>13.00379834598386</v>
+        <v>12.9506557473102</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5942773668931</v>
+        <v>340.5312784701119</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -34996,28 +35596,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4102946750406697</v>
+        <v>0.4186630595157168</v>
       </c>
       <c r="J5" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0526985402036042</v>
+        <v>0.05613500373259828</v>
       </c>
       <c r="M5" t="n">
-        <v>9.798278384290212</v>
+        <v>9.74105084149584</v>
       </c>
       <c r="N5" t="n">
-        <v>160.9440029994688</v>
+        <v>159.2920822693564</v>
       </c>
       <c r="O5" t="n">
-        <v>12.68637075760711</v>
+        <v>12.62109671420659</v>
       </c>
       <c r="P5" t="n">
-        <v>347.8802801072394</v>
+        <v>347.7958900749651</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -35073,28 +35673,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4896985841681498</v>
+        <v>0.5123293148647676</v>
       </c>
       <c r="J6" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07728815977395154</v>
+        <v>0.08591565494134468</v>
       </c>
       <c r="M6" t="n">
-        <v>9.935413655682499</v>
+        <v>9.889775031649156</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8394431374058</v>
+        <v>151.6850166484732</v>
       </c>
       <c r="O6" t="n">
-        <v>12.36282504678465</v>
+        <v>12.3160471194484</v>
       </c>
       <c r="P6" t="n">
-        <v>348.9564640448552</v>
+        <v>348.7293771835769</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35150,28 +35750,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.487749917752094</v>
+        <v>0.506758868567619</v>
       </c>
       <c r="J7" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07360807415808401</v>
+        <v>0.08078612887128556</v>
       </c>
       <c r="M7" t="n">
-        <v>9.983367048424254</v>
+        <v>9.940254615956858</v>
       </c>
       <c r="N7" t="n">
-        <v>161.5091332399741</v>
+        <v>160.4745718451249</v>
       </c>
       <c r="O7" t="n">
-        <v>12.70862436457912</v>
+        <v>12.66785585034519</v>
       </c>
       <c r="P7" t="n">
-        <v>350.9869642935647</v>
+        <v>350.7986414674445</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35227,28 +35827,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4482710509249029</v>
+        <v>0.4659728365772379</v>
       </c>
       <c r="J8" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K8" t="n">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06791115521189506</v>
+        <v>0.07480590630827344</v>
       </c>
       <c r="M8" t="n">
-        <v>9.8402723805925</v>
+        <v>9.792692786804327</v>
       </c>
       <c r="N8" t="n">
-        <v>147.7384427776015</v>
+        <v>146.4985440969992</v>
       </c>
       <c r="O8" t="n">
-        <v>12.15477037124114</v>
+        <v>12.10365829396217</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5926036158709</v>
+        <v>349.4169555437995</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -35304,28 +35904,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4703960259141801</v>
+        <v>0.4900074761445522</v>
       </c>
       <c r="J9" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K9" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07961916338847275</v>
+        <v>0.08716576185557035</v>
       </c>
       <c r="M9" t="n">
-        <v>9.343611327372644</v>
+        <v>9.335195963950591</v>
       </c>
       <c r="N9" t="n">
-        <v>137.148534944366</v>
+        <v>137.058056292808</v>
       </c>
       <c r="O9" t="n">
-        <v>11.71104329017556</v>
+        <v>11.70717968995129</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6587401747242</v>
+        <v>347.4640376630015</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -35381,28 +35981,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3630271631089474</v>
+        <v>0.3769425107933875</v>
       </c>
       <c r="J10" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K10" t="n">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04548950227565329</v>
+        <v>0.05028208079359253</v>
       </c>
       <c r="M10" t="n">
-        <v>9.614325054324096</v>
+        <v>9.533779390216445</v>
       </c>
       <c r="N10" t="n">
-        <v>150.6414044810925</v>
+        <v>148.8257224861592</v>
       </c>
       <c r="O10" t="n">
-        <v>12.27360600968975</v>
+        <v>12.19941484195694</v>
       </c>
       <c r="P10" t="n">
-        <v>349.4379671163628</v>
+        <v>349.3011024007356</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -35458,28 +36058,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3902224403233726</v>
+        <v>0.4069501931333962</v>
       </c>
       <c r="J11" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K11" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05218651633041516</v>
+        <v>0.0580281781326073</v>
       </c>
       <c r="M11" t="n">
-        <v>9.671937206567017</v>
+        <v>9.616836217805252</v>
       </c>
       <c r="N11" t="n">
-        <v>148.8153771478108</v>
+        <v>147.3256930060471</v>
       </c>
       <c r="O11" t="n">
-        <v>12.19899082497445</v>
+        <v>12.13777957478414</v>
       </c>
       <c r="P11" t="n">
-        <v>359.1809295572314</v>
+        <v>359.014688417427</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -35535,28 +36135,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3667438288093972</v>
+        <v>0.3795844520325956</v>
       </c>
       <c r="J12" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K12" t="n">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05386116851137612</v>
+        <v>0.05918013168424507</v>
       </c>
       <c r="M12" t="n">
-        <v>9.021359883098059</v>
+        <v>8.980424139704784</v>
       </c>
       <c r="N12" t="n">
-        <v>126.9844048077416</v>
+        <v>125.5737172181654</v>
       </c>
       <c r="O12" t="n">
-        <v>11.2687357235735</v>
+        <v>11.2059679286604</v>
       </c>
       <c r="P12" t="n">
-        <v>371.0138181201864</v>
+        <v>370.8849966757899</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -35612,28 +36212,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2111067511206456</v>
+        <v>0.246395198012025</v>
       </c>
       <c r="J13" t="n">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K13" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00352344074763522</v>
+        <v>0.00497326405627152</v>
       </c>
       <c r="M13" t="n">
-        <v>19.77397177386932</v>
+        <v>19.56106163705963</v>
       </c>
       <c r="N13" t="n">
-        <v>662.9737466294598</v>
+        <v>651.5610888598579</v>
       </c>
       <c r="O13" t="n">
-        <v>25.74827657590814</v>
+        <v>25.52569467928068</v>
       </c>
       <c r="P13" t="n">
-        <v>443.640020116177</v>
+        <v>443.280603255332</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -35670,7 +36270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N649"/>
+  <dimension ref="A1:N660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75158,6 +75758,722 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-37.30318664667215,175.9159286753229</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-37.30382194085135,175.91634142182392</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-37.304412582725334,175.91685092399948</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-37.30503875407053,175.91728331971044</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-37.30562634086449,175.91779119935796</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-37.3062231830419,175.91828727066434</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-37.30677738578369,175.91885452305024</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-37.30730163360296,175.91944659142962</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>-37.30771677823969,175.92010949263985</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>-37.30719366240467,175.92117783989806</t>
+        </is>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-37.3020404170473,175.91477444825404</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-37.30263863978512,175.91528433470785</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-37.3032623701742,175.91573485462789</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-37.30383864724172,175.91630368480108</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-37.30435545399707,175.91696906935323</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-37.30494358106068,175.91746418293093</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-37.30557173618498,175.9178846486605</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-37.30610723458153,175.9184803871304</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-37.30681825213206,175.91878741306803</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-37.30734326545259,175.91939295816346</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>-37.307693568183815,175.9201252128375</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr"/>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-37.301954032797504,175.9150029655906</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-37.30258096849037,175.91543689565395</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-37.30320628213985,175.91587841679922</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-37.30383762370884,175.9163059967969</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-37.30441611752032,175.91684361383534</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-37.30504042820779,175.91728013823413</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-37.30563329553276,175.91777929726638</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-37.306215953978274,175.91829931097007</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-37.30678851177209,175.9188362521653</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-37.307288766298484,175.919463168037</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>-37.307699746970194,175.92012102793936</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>-37.30711239239445,175.9212094901752</t>
+        </is>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-37.3067609477096,175.91888151732275</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-37.30727696033078,175.91947837734497</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>-37.30769293446214,175.92012564205777</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>-37.30726881077195,175.92114857361176</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-37.301994175136876,175.91489677490577</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-37.30258143078606,175.91543567272151</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-37.30320421131561,175.91588371724043</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-37.30383743452503,175.9163064241326</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-37.30443424070213,175.91680613400354</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-37.30504759153254,175.91726652528024</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-37.3056642738786,175.9177262814436</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-37.30622965131803,175.91827649747816</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-37.30681291145331,175.9187961834421</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-37.307335647784384,175.9194027718206</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>-37.30766283268051,175.92014603001314</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr"/>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-37.30191820510503,175.91509774220577</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-37.302496791948634,175.91565957101318</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-37.30313353935712,175.91606460727488</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-37.30373929159016,175.91652811245095</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-37.30432518478402,175.91703166758387</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-37.30492896491259,175.91749195882593</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-37.30553951236725,175.9179397957062</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-37.306108049484564,175.91847902988295</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-37.30669009387662,175.91899787180876</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-37.307208344171165,175.9195667735426</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>-37.30754955489684,175.92022275296756</t>
+        </is>
+      </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>-37.30717890949422,175.9211835853643</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-37.301934616508625,175.91505432841308</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-37.30251381991288,175.9156145264286</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-37.30315643720602,175.9160059986723</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-37.30376922639113,175.9164604949473</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-37.30435564546551,175.91696867338666</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-37.30495191004581,175.91744835487802</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-37.30554164494999,175.91793614605956</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>-37.30756832891004,175.92021003736042</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>-37.30736859422269,175.92110971318607</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-37.304378128270784,175.91692217775696</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-37.30503420886567,175.91729195726919</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-37.30560960487755,175.9178198410019</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-37.30611411987507,175.9184689194488</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-37.30677374559062,175.91886050090346</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>-37.30719533419817,175.91958353388458</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>-37.30758258765347,175.92020037993322</t>
+        </is>
+      </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>-37.30711204057621,175.92120962718923</t>
+        </is>
+      </c>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-37.301923251805874,175.91508439195707</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-37.3025483766136,175.91552311235347</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-37.30313832733127,175.91605235213814</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-37.303774741841494,175.91644803649018</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-37.30438371767172,175.91691061857045</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-37.30498777629167,175.9173801960898</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-37.30558986871878,175.91785361705098</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-37.30619219769473,175.9183388780173</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-37.306779042071454,175.91885180312687</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>-37.30726860086008,175.9194891466201</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>-37.307592410343,175.92019372703683</t>
+        </is>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>-37.307170567493344,175.92118683412463</t>
+        </is>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-37.30187980903882,175.91519931273922</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-37.30253967002646,175.91554614422455</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-37.30316980306511,175.9159717877965</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-37.303797419691605,175.91639681106395</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-37.30439475900606,175.91688778447613</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-37.30498152043246,175.9173920844858</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-37.305579538856726,175.91787129534745</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>-37.30619068248715,175.918341401655</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>-37.30675941362774,175.91888403655983</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>-37.30727975633103,175.91947477533432</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>-37.30759256877347,175.92019361973203</t>
+        </is>
+      </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>-37.307196836586776,175.92117660372432</t>
+        </is>
+      </c>
+      <c r="N659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-37.30192831134676,175.91507100773637</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-37.30256956519278,175.91546706131652</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-37.30318716108121,175.91592735865348</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-37.30381211783777,175.91636361039636</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-37.30442993267333,175.9168150432704</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-37.305043609589916,175.91727409243768</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-37.30564160195199,175.91776508180752</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-37.30624748045435,175.91824680228356</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-37.306801793271056,175.91881444152938</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>-37.30728531409448,175.9194676154185</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>-37.30762750269094,175.9201699590144</t>
+        </is>
+      </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>-37.30716614240195,175.92118855745923</t>
+        </is>
+      </c>
+      <c r="N660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -35210,7 +35210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35301,35 +35301,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -35388,27 +35393,28 @@
       <c r="P2" t="n">
         <v>329.4869471792177</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.91158129697783 -37.30324742822626, 175.92094033273884 -37.29970936607883)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.9115812969778</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.30324742822626</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.9209403327388</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.29970936607883</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.9162608148583</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.30147839715254</v>
       </c>
     </row>
@@ -35465,27 +35471,28 @@
       <c r="P3" t="n">
         <v>332.8165703754547</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.91194953820158 -37.30389919420304, 175.9213086123446 -37.30036112173694)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.9119495382016</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.30389919420304</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.9213086123446</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.30036112173694</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.9166290752731</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.30213015796999</v>
       </c>
     </row>
@@ -35542,27 +35549,28 @@
       <c r="P4" t="n">
         <v>340.5312784701119</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.91234029902105 -37.30458850907916, 175.92164147533296 -37.30095451495793)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.9123402990211</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.30458850907916</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.921641475333</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.30095451495793</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.916990887177</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.30277151201854</v>
       </c>
     </row>
@@ -35619,27 +35627,28 @@
       <c r="P5" t="n">
         <v>347.7958900749651</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.91282462742396 -37.30537876357662, 175.92188035343284 -37.30136961854143)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.912824627424</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.30537876357662</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.9218803534328</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.30136961854143</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.9173524904284</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.30337419105902</v>
       </c>
     </row>
@@ -35696,27 +35705,28 @@
       <c r="P6" t="n">
         <v>348.7293771835769</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.9133521583008 -37.306104306674285, 175.92220886716268 -37.30182156893741)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.9133521583008</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.30610430667429</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.9222088671627</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.30182156893741</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.9177805127317</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.30396293780585</v>
       </c>
     </row>
@@ -35773,27 +35783,28 @@
       <c r="P7" t="n">
         <v>350.7986414674445</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.91388456332942 -37.306827138155164, 175.92252982073637 -37.302277759531115)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.9138845633294</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.30682713815516</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.9225298207364</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.30227775953112</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.9182071920329</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.30455244884314</v>
       </c>
     </row>
@@ -35850,27 +35861,28 @@
       <c r="P8" t="n">
         <v>349.4169555437995</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.91450528473632 -37.307546285218024, 175.92286036076092 -37.30266409247764)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.9145052847363</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.30754628521802</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.9228603607609</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.30266409247764</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.9186828227486</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.30510518884783</v>
       </c>
     </row>
@@ -35927,27 +35939,28 @@
       <c r="P9" t="n">
         <v>347.4640376630015</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.91506061749692 -37.308160391071375, 175.92333546427412 -37.30319199765726)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.9150606174969</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.30816039107138</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.9233354642741</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.30319199765726</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.9191980408855</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.30567619436432</v>
       </c>
     </row>
@@ -36004,27 +36017,28 @@
       <c r="P10" t="n">
         <v>349.3011024007356</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.9156043928178 -37.308756447120636, 175.92383670979717 -37.30374327955622)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.9156043928178</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.30875644712064</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.9238367097972</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.30374327955622</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.9197205513075</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.30624986333843</v>
       </c>
     </row>
@@ -36081,27 +36095,28 @@
       <c r="P11" t="n">
         <v>359.014688417427</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.91645399824498 -37.30962447560251, 175.92387650559706 -37.30386275789948)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.916453998245</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.30962447560251</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.9238765055971</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.30386275789948</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.920165251921</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.30674361675099</v>
       </c>
     </row>
@@ -36158,27 +36173,28 @@
       <c r="P12" t="n">
         <v>370.8849966757899</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.91810742496696 -37.31067260012633, 175.9230302235007 -37.303404203731624)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.918107424967</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.31067260012633</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.9230302235007</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.30340420373162</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.9205688242338</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.30703840192898</v>
       </c>
     </row>
@@ -36235,27 +36251,28 @@
       <c r="P13" t="n">
         <v>443.280603255332</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.9196437992626 -37.31113249414655, 175.9227162483368 -37.30324321899422)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.9196437992626</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.31113249414655</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.9227162483368</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.30324321899422</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.9211800237997</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.30718785657038</v>
       </c>
     </row>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N660"/>
+  <dimension ref="A1:N668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28478,6 +28478,390 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>332.9833333333333</v>
+      </c>
+      <c r="C661" t="n">
+        <v>338.16</v>
+      </c>
+      <c r="D661" t="n">
+        <v>342.6311111111111</v>
+      </c>
+      <c r="E661" t="n">
+        <v>342.3511111111111</v>
+      </c>
+      <c r="F661" t="n">
+        <v>348.3184210526315</v>
+      </c>
+      <c r="G661" t="n">
+        <v>353.3384210526316</v>
+      </c>
+      <c r="H661" t="n">
+        <v>351.1784210526316</v>
+      </c>
+      <c r="I661" t="n">
+        <v>345.7835294117647</v>
+      </c>
+      <c r="J661" t="n">
+        <v>348.1995238095238</v>
+      </c>
+      <c r="K661" t="n">
+        <v>359.93</v>
+      </c>
+      <c r="L661" t="n">
+        <v>369.41</v>
+      </c>
+      <c r="M661" t="n">
+        <v>429.56</v>
+      </c>
+      <c r="N661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>343.2133333333333</v>
+      </c>
+      <c r="C662" t="n">
+        <v>344.08</v>
+      </c>
+      <c r="D662" t="n">
+        <v>353.1144444444445</v>
+      </c>
+      <c r="E662" t="n">
+        <v>356.1344444444445</v>
+      </c>
+      <c r="F662" t="n">
+        <v>356.268947368421</v>
+      </c>
+      <c r="G662" t="n">
+        <v>366.838947368421</v>
+      </c>
+      <c r="H662" t="n">
+        <v>353.668947368421</v>
+      </c>
+      <c r="I662" t="n">
+        <v>353.8741176470588</v>
+      </c>
+      <c r="J662" t="n">
+        <v>349.8695238095238</v>
+      </c>
+      <c r="K662" t="n">
+        <v>364.3390909090909</v>
+      </c>
+      <c r="L662" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="M662" t="n">
+        <v>449.3881818181818</v>
+      </c>
+      <c r="N662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>340.3433333333333</v>
+      </c>
+      <c r="C663" t="n">
+        <v>355.02</v>
+      </c>
+      <c r="D663" t="n">
+        <v>367.2044444444445</v>
+      </c>
+      <c r="E663" t="n">
+        <v>366.7944444444445</v>
+      </c>
+      <c r="F663" t="n">
+        <v>370.6852631578947</v>
+      </c>
+      <c r="G663" t="n">
+        <v>369.2952631578947</v>
+      </c>
+      <c r="H663" t="n">
+        <v>362.5052631578947</v>
+      </c>
+      <c r="I663" t="n">
+        <v>360.2635294117647</v>
+      </c>
+      <c r="J663" t="n">
+        <v>362.3838095238095</v>
+      </c>
+      <c r="K663" t="n">
+        <v>377.9727272727272</v>
+      </c>
+      <c r="L663" t="n">
+        <v>383.72</v>
+      </c>
+      <c r="M663" t="n">
+        <v>450.2454545454545</v>
+      </c>
+      <c r="N663" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>347.71</v>
+      </c>
+      <c r="C664" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="D664" t="n">
+        <v>361.3766666666667</v>
+      </c>
+      <c r="E664" t="n">
+        <v>362.2966666666667</v>
+      </c>
+      <c r="F664" t="n">
+        <v>368.411052631579</v>
+      </c>
+      <c r="G664" t="n">
+        <v>372.7010526315789</v>
+      </c>
+      <c r="H664" t="n">
+        <v>366.7610526315789</v>
+      </c>
+      <c r="I664" t="n">
+        <v>360.8111764705882</v>
+      </c>
+      <c r="J664" t="n">
+        <v>362.42</v>
+      </c>
+      <c r="K664" t="n">
+        <v>376.8381818181818</v>
+      </c>
+      <c r="L664" t="n">
+        <v>381.38</v>
+      </c>
+      <c r="M664" t="n">
+        <v>444.1463636363636</v>
+      </c>
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>344.7733333333333</v>
+      </c>
+      <c r="C665" t="n">
+        <v>354.84</v>
+      </c>
+      <c r="D665" t="n">
+        <v>355.4044444444444</v>
+      </c>
+      <c r="E665" t="n">
+        <v>361.0344444444444</v>
+      </c>
+      <c r="F665" t="n">
+        <v>365.1594736842105</v>
+      </c>
+      <c r="G665" t="n">
+        <v>366.3994736842105</v>
+      </c>
+      <c r="H665" t="n">
+        <v>360.4694736842105</v>
+      </c>
+      <c r="I665" t="n">
+        <v>363.7088235294117</v>
+      </c>
+      <c r="J665" t="n">
+        <v>362.4409523809524</v>
+      </c>
+      <c r="K665" t="n">
+        <v>373.8663636363637</v>
+      </c>
+      <c r="L665" t="n">
+        <v>386.48</v>
+      </c>
+      <c r="M665" t="n">
+        <v>468.8527272727272</v>
+      </c>
+      <c r="N665" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>334.3233333333333</v>
+      </c>
+      <c r="C666" t="n">
+        <v>346.91</v>
+      </c>
+      <c r="D666" t="n">
+        <v>354.7044444444444</v>
+      </c>
+      <c r="E666" t="n">
+        <v>361.9944444444445</v>
+      </c>
+      <c r="F666" t="n">
+        <v>360.1431578947368</v>
+      </c>
+      <c r="G666" t="n">
+        <v>361.3231578947368</v>
+      </c>
+      <c r="H666" t="n">
+        <v>355.2731578947368</v>
+      </c>
+      <c r="I666" t="n">
+        <v>351.8670588235294</v>
+      </c>
+      <c r="J666" t="n">
+        <v>350.0323809523809</v>
+      </c>
+      <c r="K666" t="n">
+        <v>356.8281818181818</v>
+      </c>
+      <c r="L666" t="n">
+        <v>369.67</v>
+      </c>
+      <c r="M666" t="n">
+        <v>442.1663636363636</v>
+      </c>
+      <c r="N666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>334.2633333333333</v>
+      </c>
+      <c r="C667" t="n">
+        <v>345.98</v>
+      </c>
+      <c r="D667" t="n">
+        <v>354.1111111111111</v>
+      </c>
+      <c r="E667" t="n">
+        <v>358.9611111111111</v>
+      </c>
+      <c r="F667" t="n">
+        <v>359.3478947368421</v>
+      </c>
+      <c r="G667" t="n">
+        <v>361.4378947368421</v>
+      </c>
+      <c r="H667" t="n">
+        <v>360.9378947368421</v>
+      </c>
+      <c r="I667" t="n">
+        <v>355.0888235294117</v>
+      </c>
+      <c r="J667" t="n">
+        <v>353.8880952380952</v>
+      </c>
+      <c r="K667" t="n">
+        <v>363.0527272727272</v>
+      </c>
+      <c r="L667" t="n">
+        <v>372.39</v>
+      </c>
+      <c r="M667" t="n">
+        <v>438.4754545454546</v>
+      </c>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>325.85</v>
+      </c>
+      <c r="C668" t="n">
+        <v>336.99</v>
+      </c>
+      <c r="D668" t="n">
+        <v>348</v>
+      </c>
+      <c r="E668" t="n">
+        <v>347.71</v>
+      </c>
+      <c r="F668" t="n">
+        <v>354.3626315789473</v>
+      </c>
+      <c r="G668" t="n">
+        <v>349.2226315789474</v>
+      </c>
+      <c r="H668" t="n">
+        <v>351.6026315789473</v>
+      </c>
+      <c r="I668" t="n">
+        <v>351.7311764705883</v>
+      </c>
+      <c r="J668" t="n">
+        <v>343.1328571428572</v>
+      </c>
+      <c r="K668" t="n">
+        <v>349.9718181818182</v>
+      </c>
+      <c r="L668" t="n">
+        <v>370.05</v>
+      </c>
+      <c r="M668" t="n">
+        <v>436.0536363636364</v>
+      </c>
+      <c r="N668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28489,7 +28873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35197,6 +35581,86 @@
       </c>
       <c r="B670" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -35370,28 +35834,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3540641090239993</v>
+        <v>0.3521038528472381</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K2" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03130310871827835</v>
+        <v>0.0317768677521989</v>
       </c>
       <c r="M2" t="n">
-        <v>11.36547945010363</v>
+        <v>11.27878979034813</v>
       </c>
       <c r="N2" t="n">
-        <v>211.3433511672321</v>
+        <v>208.6680407161938</v>
       </c>
       <c r="O2" t="n">
-        <v>14.53765287683098</v>
+        <v>14.44534668037406</v>
       </c>
       <c r="P2" t="n">
-        <v>329.4869471792177</v>
+        <v>329.5071496619528</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35448,28 +35912,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5390191167024181</v>
+        <v>0.5418842058549019</v>
       </c>
       <c r="J3" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K3" t="n">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07584745659735437</v>
+        <v>0.07840256668624068</v>
       </c>
       <c r="M3" t="n">
-        <v>11.06673837085452</v>
+        <v>10.99256411422976</v>
       </c>
       <c r="N3" t="n">
-        <v>191.2404911217899</v>
+        <v>189.1442877211067</v>
       </c>
       <c r="O3" t="n">
-        <v>13.82897288744865</v>
+        <v>13.7529737773729</v>
       </c>
       <c r="P3" t="n">
-        <v>332.8165703754547</v>
+        <v>332.7875352136454</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35526,28 +35990,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5110701167579594</v>
+        <v>0.5136948882989696</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07769415234245269</v>
+        <v>0.08029779782570767</v>
       </c>
       <c r="M4" t="n">
-        <v>10.51998183809952</v>
+        <v>10.43418502865694</v>
       </c>
       <c r="N4" t="n">
-        <v>167.7194842853387</v>
+        <v>165.8681681121444</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9506557473102</v>
+        <v>12.87898164111373</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5312784701119</v>
+        <v>340.5046995907574</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35604,28 +36068,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4186630595157168</v>
+        <v>0.414772297644119</v>
       </c>
       <c r="J5" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K5" t="n">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05613500373259828</v>
+        <v>0.0563828387592793</v>
       </c>
       <c r="M5" t="n">
-        <v>9.74105084149584</v>
+        <v>9.684619074257968</v>
       </c>
       <c r="N5" t="n">
-        <v>159.2920822693564</v>
+        <v>157.8035580004018</v>
       </c>
       <c r="O5" t="n">
-        <v>12.62109671420659</v>
+        <v>12.56198861647318</v>
       </c>
       <c r="P5" t="n">
-        <v>347.7958900749651</v>
+        <v>347.835388944174</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35682,28 +36146,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5123293148647676</v>
+        <v>0.508054749870352</v>
       </c>
       <c r="J6" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K6" t="n">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08591565494134468</v>
+        <v>0.08643456357230772</v>
       </c>
       <c r="M6" t="n">
-        <v>9.889775031649156</v>
+        <v>9.834423495301532</v>
       </c>
       <c r="N6" t="n">
-        <v>151.6850166484732</v>
+        <v>150.1810575256328</v>
       </c>
       <c r="O6" t="n">
-        <v>12.3160471194484</v>
+        <v>12.25483812727173</v>
       </c>
       <c r="P6" t="n">
-        <v>348.7293771835769</v>
+        <v>348.7727946634312</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35760,28 +36224,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.506758868567619</v>
+        <v>0.5032901673539402</v>
       </c>
       <c r="J7" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K7" t="n">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08078612887128556</v>
+        <v>0.08151575121000143</v>
       </c>
       <c r="M7" t="n">
-        <v>9.940254615956858</v>
+        <v>9.886785017468611</v>
       </c>
       <c r="N7" t="n">
-        <v>160.4745718451249</v>
+        <v>158.9318450775449</v>
       </c>
       <c r="O7" t="n">
-        <v>12.66785585034519</v>
+        <v>12.60681740478321</v>
       </c>
       <c r="P7" t="n">
-        <v>350.7986414674445</v>
+        <v>350.8335996145869</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35838,28 +36302,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4659728365772379</v>
+        <v>0.456160870025079</v>
       </c>
       <c r="J8" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K8" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07480590630827344</v>
+        <v>0.07358592203647796</v>
       </c>
       <c r="M8" t="n">
-        <v>9.792692786804327</v>
+        <v>9.723868609281814</v>
       </c>
       <c r="N8" t="n">
-        <v>146.4985440969992</v>
+        <v>144.9396048163037</v>
       </c>
       <c r="O8" t="n">
-        <v>12.10365829396217</v>
+        <v>12.03908654409892</v>
       </c>
       <c r="P8" t="n">
-        <v>349.4169555437995</v>
+        <v>349.5153980767421</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35916,28 +36380,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4900074761445522</v>
+        <v>0.477082477436554</v>
       </c>
       <c r="J9" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K9" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08716576185557035</v>
+        <v>0.08482033474945394</v>
       </c>
       <c r="M9" t="n">
-        <v>9.335195963950591</v>
+        <v>9.278704919525724</v>
       </c>
       <c r="N9" t="n">
-        <v>137.058056292808</v>
+        <v>135.7734157564039</v>
       </c>
       <c r="O9" t="n">
-        <v>11.70717968995129</v>
+        <v>11.65218502069049</v>
       </c>
       <c r="P9" t="n">
-        <v>347.4640376630015</v>
+        <v>347.5939076726468</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35994,28 +36458,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3769425107933875</v>
+        <v>0.3634456366074046</v>
       </c>
       <c r="J10" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K10" t="n">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05028208079359253</v>
+        <v>0.04788034007926734</v>
       </c>
       <c r="M10" t="n">
-        <v>9.533779390216445</v>
+        <v>9.503815136600323</v>
       </c>
       <c r="N10" t="n">
-        <v>148.8257224861592</v>
+        <v>147.6945508315958</v>
       </c>
       <c r="O10" t="n">
-        <v>12.19941484195694</v>
+        <v>12.15296469309426</v>
       </c>
       <c r="P10" t="n">
-        <v>349.3011024007356</v>
+        <v>349.435440966939</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36072,28 +36536,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4069501931333962</v>
+        <v>0.3954081429010235</v>
       </c>
       <c r="J11" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K11" t="n">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0580281781326073</v>
+        <v>0.05593073119960346</v>
       </c>
       <c r="M11" t="n">
-        <v>9.616836217805252</v>
+        <v>9.608070414352477</v>
       </c>
       <c r="N11" t="n">
-        <v>147.3256930060471</v>
+        <v>146.6837539273797</v>
       </c>
       <c r="O11" t="n">
-        <v>12.13777957478414</v>
+        <v>12.11130686290211</v>
       </c>
       <c r="P11" t="n">
-        <v>359.014688417427</v>
+        <v>359.1306949248381</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36150,28 +36614,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3795844520325956</v>
+        <v>0.3648668143611261</v>
       </c>
       <c r="J12" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K12" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05918013168424507</v>
+        <v>0.05601016388660629</v>
       </c>
       <c r="M12" t="n">
-        <v>8.980424139704784</v>
+        <v>8.954897520987585</v>
       </c>
       <c r="N12" t="n">
-        <v>125.5737172181654</v>
+        <v>124.7151128398041</v>
       </c>
       <c r="O12" t="n">
-        <v>11.2059679286604</v>
+        <v>11.16759207885944</v>
       </c>
       <c r="P12" t="n">
-        <v>370.8849966757899</v>
+        <v>371.0335065988805</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36228,28 +36692,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.246395198012025</v>
+        <v>0.2297798928916027</v>
       </c>
       <c r="J13" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K13" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00497326405627152</v>
+        <v>0.004465824558285147</v>
       </c>
       <c r="M13" t="n">
-        <v>19.56106163705963</v>
+        <v>19.3782716756836</v>
       </c>
       <c r="N13" t="n">
-        <v>651.5610888598579</v>
+        <v>641.787117241682</v>
       </c>
       <c r="O13" t="n">
-        <v>25.52569467928068</v>
+        <v>25.33351766418714</v>
       </c>
       <c r="P13" t="n">
-        <v>443.280603255332</v>
+        <v>443.4516850230622</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36287,7 +36751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N660"/>
+  <dimension ref="A1:N668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76491,6 +76955,582 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-37.30196467835957,175.9149748043488</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-37.30259649391416,175.9153958254967</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-37.30323277196273,175.91581061388877</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-37.30388418228447,175.9162008283158</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-37.30447981003475,175.91671189369444</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-37.305076529054844,175.91721153328038</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-37.305678952832324,175.91770116009917</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-37.30628924090568,175.91817724835198</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>-37.306855218245,175.91872670786876</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>-37.30736532530254,175.91936453897725</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>-37.30774632550964,175.92008948022456</t>
+        </is>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>-37.30743828548691,175.9210825720317</t>
+        </is>
+      </c>
+      <c r="N661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-37.30192526791752,175.91507905865106</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-37.30257368733161,175.91545615683827</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-37.30319128954319,175.91591679153652</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-37.30382400732186,175.916336754005</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-37.30444272911258,175.916788579445</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-37.30500963919389,175.91733864863247</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-37.30566570958963,175.91772382438978</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-37.30624545911894,175.91825016890604</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>-37.306846099575814,175.9187416824213</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>-37.30733765063204,175.91940019160083</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>-37.30773769105303,175.92009532835823</t>
+        </is>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>-37.307267763135584,175.9211489816107</t>
+        </is>
+      </c>
+      <c r="N662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-37.30193632442378,175.91504981038813</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-37.30253154130627,175.91556764742663</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-37.30313553544566,175.9160594981547</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-37.30377746803549,175.9164418784834</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-37.304375491899485,175.91692762991548</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-37.304997469090054,175.91736177625754</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-37.30561872291271,175.91780423657607</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-37.306210883128486,175.9183077566785</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-37.306777768003954,175.91885389537563</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-37.30725207592424,175.9195104352279</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>-37.30763296854161,175.92016625699546</t>
+        </is>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>-37.30726039059,175.9211518528269</t>
+        </is>
+      </c>
+      <c r="N663" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-37.30190794475969,175.91512488430874</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-37.30251512975561,175.91561106145969</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-37.30315859596876,175.91600047316658</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-37.30379710438473,175.91639752328933</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-37.30438609875129,175.91690569436662</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-37.304980594700815,175.91739384371056</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-37.30559609294226,175.9178429650488</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-37.30620791956189,175.91831269261934</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>-37.30677757039349,175.9188542198877</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>-37.30725919716774,175.91950126113284</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>-37.30765150490404,175.9201537023186</t>
+        </is>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>-37.307312842771495,175.92113142546725</t>
+        </is>
+      </c>
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-37.301919258106345,175.91509495665787</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-37.30253223475175,175.91556581303044</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-37.30318222802961,175.91593998517502</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-37.30380261497793,175.91638507578</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-37.304401264014345,175.91687433174948</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-37.305011816617224,175.91733451073426</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>-37.305629548128145,175.91778571050634</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>-37.30619223907645,175.91833880909442</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>-37.30677745598742,175.9188544077631</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>-37.307277850485974,175.91947723058243</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>-37.30761110513835,175.92018106506816</t>
+        </is>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>-37.30710036802874,175.92121417301027</t>
+        </is>
+      </c>
+      <c r="N665" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-37.30195951609746,175.91498846034403</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-37.302562784850195,175.91548499765193</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-37.30318499792506,175.91593289541711</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-37.30379842382265,175.91639454289992</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-37.30442465993981,175.9168259476024</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-37.30503696780249,175.9172867142761</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>-37.30565717928242,175.91773842302408</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-37.306256320214615,175.91823207927249</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>-37.30684521032995,175.91874314272823</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>-37.30738479457005,175.91933945715712</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>-37.3077442659145,175.92009087519233</t>
+        </is>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>-37.3073298707708,175.9211247939533</t>
+        </is>
+      </c>
+      <c r="N666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-37.301959747243565,175.9149878488816</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-37.30256636764518,175.91547551992966</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-37.303187345740874,175.9159268860029</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-37.30381166670669,175.91636462942694</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-37.30442836901828,175.916818277004</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-37.30503639932593,175.9172877945904</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-37.30562705732132,175.91778997322712</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-37.30623888579924,175.91826111705512</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>-37.30682415703958,175.91877771612423</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>-37.3073457247895,175.9193897898587</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>-37.30772271937998,175.920105468697</t>
+        </is>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>-37.30736161258691,175.9211124321706</t>
+        </is>
+      </c>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-37.30199215903308,175.9149021082219</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-37.302601001292714,175.91538390189933</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-37.30321152734754,175.9158649912642</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-37.303860786586995,175.91625367554911</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-37.30445162009394,175.91677019233515</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-37.30509692116668,175.91717278066918</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-37.30567669711544,175.9177050205009</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-37.30625705553489,175.9182308545638</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>-37.30688288365777,175.91868127607006</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>-37.307427830079156,175.91928401540892</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>-37.30774125573697,175.92009291399128</t>
+        </is>
+      </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>-37.30738244022139,175.92110432088728</t>
+        </is>
+      </c>
+      <c r="N668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N668"/>
+  <dimension ref="A1:N670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28862,6 +28862,102 @@
         </is>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>358.87</v>
+      </c>
+      <c r="C669" t="n">
+        <v>355.92</v>
+      </c>
+      <c r="D669" t="n">
+        <v>355.93</v>
+      </c>
+      <c r="E669" t="n">
+        <v>368.33</v>
+      </c>
+      <c r="F669" t="n">
+        <v>370.1331578947368</v>
+      </c>
+      <c r="G669" t="n">
+        <v>362.9831578947369</v>
+      </c>
+      <c r="H669" t="n">
+        <v>364.9931578947368</v>
+      </c>
+      <c r="I669" t="n">
+        <v>357.2358823529411</v>
+      </c>
+      <c r="J669" t="n">
+        <v>355.0742857142857</v>
+      </c>
+      <c r="K669" t="n">
+        <v>363.819090909091</v>
+      </c>
+      <c r="L669" t="n">
+        <v>383.79</v>
+      </c>
+      <c r="M669" t="n">
+        <v>475.9381818181818</v>
+      </c>
+      <c r="N669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>332.5866666666667</v>
+      </c>
+      <c r="C670" t="n">
+        <v>340.12</v>
+      </c>
+      <c r="D670" t="n">
+        <v>345.8755555555555</v>
+      </c>
+      <c r="E670" t="n">
+        <v>359.8455555555556</v>
+      </c>
+      <c r="F670" t="n">
+        <v>360.4884210526316</v>
+      </c>
+      <c r="G670" t="n">
+        <v>348.6384210526315</v>
+      </c>
+      <c r="H670" t="n">
+        <v>361.5384210526316</v>
+      </c>
+      <c r="I670" t="n">
+        <v>356.1547058823529</v>
+      </c>
+      <c r="J670" t="n">
+        <v>347.947619047619</v>
+      </c>
+      <c r="K670" t="n">
+        <v>362.8390909090909</v>
+      </c>
+      <c r="L670" t="n">
+        <v>368.88</v>
+      </c>
+      <c r="M670" t="n">
+        <v>443.9781818181818</v>
+      </c>
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28873,7 +28969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35661,6 +35757,26 @@
       </c>
       <c r="B678" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -35834,28 +35950,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3521038528472381</v>
+        <v>0.3573439515617783</v>
       </c>
       <c r="J2" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K2" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0317768677521989</v>
+        <v>0.03279729338814807</v>
       </c>
       <c r="M2" t="n">
-        <v>11.27878979034813</v>
+        <v>11.2880827558038</v>
       </c>
       <c r="N2" t="n">
-        <v>208.6680407161938</v>
+        <v>208.7265721365638</v>
       </c>
       <c r="O2" t="n">
-        <v>14.44534668037406</v>
+        <v>14.447372499405</v>
       </c>
       <c r="P2" t="n">
-        <v>329.5071496619528</v>
+        <v>329.4535298729086</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35912,28 +36028,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5418842058549019</v>
+        <v>0.5427834672713384</v>
       </c>
       <c r="J3" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07840256668624068</v>
+        <v>0.07908610786609327</v>
       </c>
       <c r="M3" t="n">
-        <v>10.99256411422976</v>
+        <v>10.98050411075219</v>
       </c>
       <c r="N3" t="n">
-        <v>189.1442877211067</v>
+        <v>188.6517380792756</v>
       </c>
       <c r="O3" t="n">
-        <v>13.7529737773729</v>
+        <v>13.73505508104265</v>
       </c>
       <c r="P3" t="n">
-        <v>332.7875352136454</v>
+        <v>332.7783592923245</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35990,28 +36106,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5136948882989696</v>
+        <v>0.5116120979388086</v>
       </c>
       <c r="J4" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K4" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08029779782570767</v>
+        <v>0.08019077336710956</v>
       </c>
       <c r="M4" t="n">
-        <v>10.43418502865694</v>
+        <v>10.41477282761615</v>
       </c>
       <c r="N4" t="n">
-        <v>165.8681681121444</v>
+        <v>165.3487853254448</v>
       </c>
       <c r="O4" t="n">
-        <v>12.87898164111373</v>
+        <v>12.85880186197162</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5046995907574</v>
+        <v>340.5259902109989</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36068,28 +36184,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.414772297644119</v>
+        <v>0.4186442319087503</v>
       </c>
       <c r="J5" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K5" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0563828387592793</v>
+        <v>0.05770711779956172</v>
       </c>
       <c r="M5" t="n">
-        <v>9.684619074257968</v>
+        <v>9.668368071685592</v>
       </c>
       <c r="N5" t="n">
-        <v>157.8035580004018</v>
+        <v>157.3924891466109</v>
       </c>
       <c r="O5" t="n">
-        <v>12.56198861647318</v>
+        <v>12.54561633187508</v>
       </c>
       <c r="P5" t="n">
-        <v>347.835388944174</v>
+        <v>347.7958718830674</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36146,28 +36262,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508054749870352</v>
+        <v>0.5104056141569704</v>
       </c>
       <c r="J6" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K6" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08643456357230772</v>
+        <v>0.08765824499415931</v>
       </c>
       <c r="M6" t="n">
-        <v>9.834423495301532</v>
+        <v>9.815727711612556</v>
       </c>
       <c r="N6" t="n">
-        <v>150.1810575256328</v>
+        <v>149.7501235900805</v>
       </c>
       <c r="O6" t="n">
-        <v>12.25483812727173</v>
+        <v>12.23724330027317</v>
       </c>
       <c r="P6" t="n">
-        <v>348.7727946634312</v>
+        <v>348.7487959180562</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36224,28 +36340,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5032901673539402</v>
+        <v>0.4977696689184489</v>
       </c>
       <c r="J7" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K7" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08151575121000143</v>
+        <v>0.08020607166717497</v>
       </c>
       <c r="M7" t="n">
-        <v>9.886785017468611</v>
+        <v>9.882375389369399</v>
       </c>
       <c r="N7" t="n">
-        <v>158.9318450775449</v>
+        <v>158.7681053858138</v>
       </c>
       <c r="O7" t="n">
-        <v>12.60681740478321</v>
+        <v>12.600321638189</v>
       </c>
       <c r="P7" t="n">
-        <v>350.8335996145869</v>
+        <v>350.8893020420868</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36302,28 +36418,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.456160870025079</v>
+        <v>0.4575104965181636</v>
       </c>
       <c r="J8" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K8" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07358592203647796</v>
+        <v>0.07446821903701595</v>
       </c>
       <c r="M8" t="n">
-        <v>9.723868609281814</v>
+        <v>9.69561649308026</v>
       </c>
       <c r="N8" t="n">
-        <v>144.9396048163037</v>
+        <v>144.4338289726899</v>
       </c>
       <c r="O8" t="n">
-        <v>12.03908654409892</v>
+        <v>12.01806261311239</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5153980767421</v>
+        <v>349.5017844811377</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36380,28 +36496,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.477082477436554</v>
+        <v>0.4748532137838625</v>
       </c>
       <c r="J9" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K9" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08482033474945394</v>
+        <v>0.08463137797402021</v>
       </c>
       <c r="M9" t="n">
-        <v>9.278704919525724</v>
+        <v>9.255399672400138</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7734157564039</v>
+        <v>135.306887672582</v>
       </c>
       <c r="O9" t="n">
-        <v>11.65218502069049</v>
+        <v>11.6321488845605</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5939076726468</v>
+        <v>347.6164485358772</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36458,28 +36574,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3634456366074046</v>
+        <v>0.3584565304910986</v>
       </c>
       <c r="J10" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K10" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04788034007926734</v>
+        <v>0.04687941965031406</v>
       </c>
       <c r="M10" t="n">
-        <v>9.503815136600323</v>
+        <v>9.495652953296544</v>
       </c>
       <c r="N10" t="n">
-        <v>147.6945508315958</v>
+        <v>147.3890911857318</v>
       </c>
       <c r="O10" t="n">
-        <v>12.15296469309426</v>
+        <v>12.14039089921456</v>
       </c>
       <c r="P10" t="n">
-        <v>349.435440966939</v>
+        <v>349.4853821298081</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36536,28 +36652,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3954081429010235</v>
+        <v>0.3912150101467153</v>
       </c>
       <c r="J11" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K11" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05593073119960346</v>
+        <v>0.05514402810206898</v>
       </c>
       <c r="M11" t="n">
-        <v>9.608070414352477</v>
+        <v>9.593408879241968</v>
       </c>
       <c r="N11" t="n">
-        <v>146.6837539273797</v>
+        <v>146.2658720390092</v>
       </c>
       <c r="O11" t="n">
-        <v>12.11130686290211</v>
+        <v>12.09404283269285</v>
       </c>
       <c r="P11" t="n">
-        <v>359.1306949248381</v>
+        <v>359.1730070984855</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36614,28 +36730,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3648668143611261</v>
+        <v>0.3619412814391905</v>
       </c>
       <c r="J12" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K12" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05601016388660629</v>
+        <v>0.05542711476073259</v>
       </c>
       <c r="M12" t="n">
-        <v>8.954897520987585</v>
+        <v>8.948460786860922</v>
       </c>
       <c r="N12" t="n">
-        <v>124.7151128398041</v>
+        <v>124.5119256631904</v>
       </c>
       <c r="O12" t="n">
-        <v>11.16759207885944</v>
+        <v>11.15849119115978</v>
       </c>
       <c r="P12" t="n">
-        <v>371.0335065988805</v>
+        <v>371.063234458569</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36692,28 +36808,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2297798928916027</v>
+        <v>0.2389902145114768</v>
       </c>
       <c r="J13" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K13" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004465824558285147</v>
+        <v>0.004858282059718722</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3782716756836</v>
+        <v>19.35794433421018</v>
       </c>
       <c r="N13" t="n">
-        <v>641.787117241682</v>
+        <v>640.4633106327952</v>
       </c>
       <c r="O13" t="n">
-        <v>25.33351766418714</v>
+        <v>25.30737660510854</v>
       </c>
       <c r="P13" t="n">
-        <v>443.4516850230622</v>
+        <v>443.3563749188704</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36751,7 +36867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N668"/>
+  <dimension ref="A1:N670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77531,6 +77647,150 @@
         </is>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>-37.301864951408284,175.9152386160906</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>-37.30252807407852,175.91557681940708</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-37.30318014840944,175.91594530811983</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-37.303770764120166,175.91645702148142</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-37.30437806690274,175.9169223046694</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-37.305028743145236,175.91730234414274</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>-37.30560549364499,175.917826876882</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>-37.30622726709626,175.91828046850026</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>-37.30681768010223,175.91878835244603</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>-37.307340914531835,175.91939598679792</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>-37.30763241403502,175.92016663256263</t>
+        </is>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>-37.30703943310696,175.9212379038191</t>
+        </is>
+      </c>
+      <c r="N669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-37.301966206491606,175.91497076190208</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-37.3025889430894,175.9154158000667</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-37.30321993374612,175.91584347439263</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-37.303807805412305,175.91637335145168</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-37.304423049644825,175.91682927778916</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-37.30509981569822,175.9171672799771</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-37.30562386405078,175.9177954381305</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-37.30623311782981,175.9182707238555</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-37.30685659371563,175.91872444908935</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>-37.307347065727235,175.9193880623607</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>-37.30775052391505,175.9200866366362</t>
+        </is>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>-37.307314289135086,175.9211308621845</t>
+        </is>
+      </c>
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N670"/>
+  <dimension ref="A1:N672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28958,6 +28958,102 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>335.6233333333333</v>
+      </c>
+      <c r="C671" t="n">
+        <v>348.9299999999999</v>
+      </c>
+      <c r="D671" t="n">
+        <v>360.8111111111111</v>
+      </c>
+      <c r="E671" t="n">
+        <v>373.4511111111111</v>
+      </c>
+      <c r="F671" t="n">
+        <v>373.3668421052632</v>
+      </c>
+      <c r="G671" t="n">
+        <v>372.1668421052632</v>
+      </c>
+      <c r="H671" t="n">
+        <v>374.1468421052632</v>
+      </c>
+      <c r="I671" t="n">
+        <v>374.9494117647058</v>
+      </c>
+      <c r="J671" t="n">
+        <v>371.0352380952381</v>
+      </c>
+      <c r="K671" t="n">
+        <v>378.1381818181818</v>
+      </c>
+      <c r="L671" t="n">
+        <v>389.14</v>
+      </c>
+      <c r="M671" t="n">
+        <v>477.2963636363637</v>
+      </c>
+      <c r="N671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>324.1066666666667</v>
+      </c>
+      <c r="C672" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="D672" t="n">
+        <v>345.0788888888889</v>
+      </c>
+      <c r="E672" t="n">
+        <v>351.9388888888889</v>
+      </c>
+      <c r="F672" t="n">
+        <v>359.5831578947368</v>
+      </c>
+      <c r="G672" t="n">
+        <v>360.5031578947368</v>
+      </c>
+      <c r="H672" t="n">
+        <v>356.3931578947368</v>
+      </c>
+      <c r="I672" t="n">
+        <v>357.3005882352941</v>
+      </c>
+      <c r="J672" t="n">
+        <v>356.874761904762</v>
+      </c>
+      <c r="K672" t="n">
+        <v>363.4518181818182</v>
+      </c>
+      <c r="L672" t="n">
+        <v>369.34</v>
+      </c>
+      <c r="M672" t="n">
+        <v>439.9236363636364</v>
+      </c>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28969,7 +29065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35777,6 +35873,26 @@
       </c>
       <c r="B680" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -35950,28 +36066,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3573439515617783</v>
+        <v>0.3508664189153184</v>
       </c>
       <c r="J2" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K2" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03279729338814807</v>
+        <v>0.03181927799644568</v>
       </c>
       <c r="M2" t="n">
-        <v>11.2880827558038</v>
+        <v>11.27571393205507</v>
       </c>
       <c r="N2" t="n">
-        <v>208.7265721365638</v>
+        <v>208.3292414041698</v>
       </c>
       <c r="O2" t="n">
-        <v>14.447372499405</v>
+        <v>14.43361498046036</v>
       </c>
       <c r="P2" t="n">
-        <v>329.4535298729086</v>
+        <v>329.5201422007859</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36028,28 +36144,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5427834672713384</v>
+        <v>0.5401846842751531</v>
       </c>
       <c r="J3" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K3" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07908610786609327</v>
+        <v>0.07885969132670834</v>
       </c>
       <c r="M3" t="n">
-        <v>10.98050411075219</v>
+        <v>10.95950814653512</v>
       </c>
       <c r="N3" t="n">
-        <v>188.6517380792756</v>
+        <v>188.0889648053796</v>
       </c>
       <c r="O3" t="n">
-        <v>13.73505508104265</v>
+        <v>13.71455302973376</v>
       </c>
       <c r="P3" t="n">
-        <v>332.7783592923245</v>
+        <v>332.8050871580798</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36106,28 +36222,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5116120979388086</v>
+        <v>0.511013011870347</v>
       </c>
       <c r="J4" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K4" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08019077336710956</v>
+        <v>0.08045854269997277</v>
       </c>
       <c r="M4" t="n">
-        <v>10.41477282761615</v>
+        <v>10.4053403230641</v>
       </c>
       <c r="N4" t="n">
-        <v>165.3487853254448</v>
+        <v>164.9474995713109</v>
       </c>
       <c r="O4" t="n">
-        <v>12.85880186197162</v>
+        <v>12.84318883966559</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5259902109989</v>
+        <v>340.5321579979644</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36184,28 +36300,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4186442319087503</v>
+        <v>0.4214649046462383</v>
       </c>
       <c r="J5" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K5" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05770711779956172</v>
+        <v>0.05866402514041735</v>
       </c>
       <c r="M5" t="n">
-        <v>9.668368071685592</v>
+        <v>9.671964007359701</v>
       </c>
       <c r="N5" t="n">
-        <v>157.3924891466109</v>
+        <v>157.2978498991911</v>
       </c>
       <c r="O5" t="n">
-        <v>12.54561633187508</v>
+        <v>12.54184395929048</v>
       </c>
       <c r="P5" t="n">
-        <v>347.7958718830674</v>
+        <v>347.7670102937061</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36262,28 +36378,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5104056141569704</v>
+        <v>0.5134944750199795</v>
       </c>
       <c r="J6" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08765824499415931</v>
+        <v>0.08906020973711615</v>
       </c>
       <c r="M6" t="n">
-        <v>9.815727711612556</v>
+        <v>9.804882399396057</v>
       </c>
       <c r="N6" t="n">
-        <v>149.7501235900805</v>
+        <v>149.4447286132327</v>
       </c>
       <c r="O6" t="n">
-        <v>12.23724330027317</v>
+        <v>12.2247588366083</v>
       </c>
       <c r="P6" t="n">
-        <v>348.7487959180562</v>
+        <v>348.7171518054623</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36340,28 +36456,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4977696689184489</v>
+        <v>0.4995225845295241</v>
       </c>
       <c r="J7" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K7" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08020607166717497</v>
+        <v>0.08118607644834108</v>
       </c>
       <c r="M7" t="n">
-        <v>9.882375389369399</v>
+        <v>9.866522256602535</v>
       </c>
       <c r="N7" t="n">
-        <v>158.7681053858138</v>
+        <v>158.328698187622</v>
       </c>
       <c r="O7" t="n">
-        <v>12.600321638189</v>
+        <v>12.5828732087557</v>
       </c>
       <c r="P7" t="n">
-        <v>350.8893020420868</v>
+        <v>350.8715826303231</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36418,28 +36534,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4575104965181636</v>
+        <v>0.4601790324546052</v>
       </c>
       <c r="J8" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K8" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07446821903701595</v>
+        <v>0.07560457117304042</v>
       </c>
       <c r="M8" t="n">
-        <v>9.69561649308026</v>
+        <v>9.692898964308871</v>
       </c>
       <c r="N8" t="n">
-        <v>144.4338289726899</v>
+        <v>144.250277740331</v>
       </c>
       <c r="O8" t="n">
-        <v>12.01806261311239</v>
+        <v>12.01042371194002</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5017844811377</v>
+        <v>349.474791818389</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36496,28 +36612,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4748532137838625</v>
+        <v>0.4791425441684026</v>
       </c>
       <c r="J9" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K9" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08463137797402021</v>
+        <v>0.08635123466068828</v>
       </c>
       <c r="M9" t="n">
-        <v>9.255399672400138</v>
+        <v>9.255186984528553</v>
       </c>
       <c r="N9" t="n">
-        <v>135.306887672582</v>
+        <v>135.2360422636021</v>
       </c>
       <c r="O9" t="n">
-        <v>11.6321488845605</v>
+        <v>11.62910324417159</v>
       </c>
       <c r="P9" t="n">
-        <v>347.6164485358772</v>
+        <v>347.5729635162239</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36574,28 +36690,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3584565304910986</v>
+        <v>0.3619809977431934</v>
       </c>
       <c r="J10" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K10" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04687941965031406</v>
+        <v>0.04799742089318304</v>
       </c>
       <c r="M10" t="n">
-        <v>9.495652953296544</v>
+        <v>9.486713868781003</v>
       </c>
       <c r="N10" t="n">
-        <v>147.3890911857318</v>
+        <v>147.1278545409069</v>
       </c>
       <c r="O10" t="n">
-        <v>12.14039089921456</v>
+        <v>12.12962713940156</v>
       </c>
       <c r="P10" t="n">
-        <v>349.4853821298081</v>
+        <v>349.4500126661495</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36652,28 +36768,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3912150101467153</v>
+        <v>0.3922506274466684</v>
       </c>
       <c r="J11" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K11" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05514402810206898</v>
+        <v>0.05572402971748469</v>
       </c>
       <c r="M11" t="n">
-        <v>9.593408879241968</v>
+        <v>9.585226041226992</v>
       </c>
       <c r="N11" t="n">
-        <v>146.2658720390092</v>
+        <v>145.9272619529251</v>
       </c>
       <c r="O11" t="n">
-        <v>12.09404283269285</v>
+        <v>12.0800356768068</v>
       </c>
       <c r="P11" t="n">
-        <v>359.1730070984855</v>
+        <v>359.1625467614314</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36730,28 +36846,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3619412814391905</v>
+        <v>0.3610944550014277</v>
       </c>
       <c r="J12" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K12" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05542711476073259</v>
+        <v>0.05540004955385436</v>
       </c>
       <c r="M12" t="n">
-        <v>8.948460786860922</v>
+        <v>8.951975486490088</v>
       </c>
       <c r="N12" t="n">
-        <v>124.5119256631904</v>
+        <v>124.4150872055532</v>
       </c>
       <c r="O12" t="n">
-        <v>11.15849119115978</v>
+        <v>11.15415111989941</v>
       </c>
       <c r="P12" t="n">
-        <v>371.063234458569</v>
+        <v>371.0718967629781</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36808,28 +36924,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2389902145114768</v>
+        <v>0.2468323850571428</v>
       </c>
       <c r="J13" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K13" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004858282059718722</v>
+        <v>0.005209124958245326</v>
       </c>
       <c r="M13" t="n">
-        <v>19.35794433421018</v>
+        <v>19.35189283502232</v>
       </c>
       <c r="N13" t="n">
-        <v>640.4633106327952</v>
+        <v>639.4606498759862</v>
       </c>
       <c r="O13" t="n">
-        <v>25.30737660510854</v>
+        <v>25.28755919174459</v>
       </c>
       <c r="P13" t="n">
-        <v>443.3563749188704</v>
+        <v>443.2749480936301</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36867,7 +36983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N670"/>
+  <dimension ref="A1:N672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77791,6 +77907,150 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-37.30195450793129,175.91500170869574</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>-37.3025550028629,175.91550558366907</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-37.303160833871225,175.91599474509613</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-37.30374840640379,175.9165075236885</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-37.3043629850883,175.91695349466582</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-37.304983241510975,175.9173888138143</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-37.30555681930862,175.9179101770453</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-37.306131411093126,175.91844012034255</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-37.30673052867701,175.91893147078596</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>-37.307251037409515,175.9195117731166</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>-37.30759003388588,175.92019533660869</t>
+        </is>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>-37.30702775274047,175.9212424526768</t>
+        </is>
+      </c>
+      <c r="N671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-37.30199887509773,175.9148843418236</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-37.30259884391509,175.9153896089205</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-37.303223086144634,175.91583540556454</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-37.30384232419834,175.9162953791474</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-37.30442727175951,175.91682054620165</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-37.30504103058427,175.91727899349732</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-37.305651223738856,175.91774861524445</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-37.30622691694353,175.9182810516944</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-37.306807848988505,175.91880449693573</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>-37.30734321980364,175.9193930169719</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>-37.30774688001601,175.9200891046563</t>
+        </is>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>-37.30734915822422,175.92111728249682</t>
+        </is>
+      </c>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N672"/>
+  <dimension ref="A1:N675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29054,6 +29054,150 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>335.4333333333333</v>
+      </c>
+      <c r="C673" t="n">
+        <v>341.21</v>
+      </c>
+      <c r="D673" t="n">
+        <v>347.6577777777778</v>
+      </c>
+      <c r="E673" t="n">
+        <v>356.0177777777778</v>
+      </c>
+      <c r="F673" t="n">
+        <v>366.1552631578948</v>
+      </c>
+      <c r="G673" t="n">
+        <v>363.3352631578948</v>
+      </c>
+      <c r="H673" t="n">
+        <v>364.2652631578948</v>
+      </c>
+      <c r="I673" t="n">
+        <v>364.2517647058824</v>
+      </c>
+      <c r="J673" t="n">
+        <v>362.4766666666667</v>
+      </c>
+      <c r="K673" t="n">
+        <v>366.199090909091</v>
+      </c>
+      <c r="L673" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="M673" t="n">
+        <v>459.3781818181818</v>
+      </c>
+      <c r="N673" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>310.6266666666667</v>
+      </c>
+      <c r="C674" t="n">
+        <v>323.44</v>
+      </c>
+      <c r="D674" t="n">
+        <v>335.3922222222222</v>
+      </c>
+      <c r="E674" t="n">
+        <v>347.9622222222222</v>
+      </c>
+      <c r="F674" t="n">
+        <v>351.1447368421053</v>
+      </c>
+      <c r="G674" t="n">
+        <v>356.8247368421053</v>
+      </c>
+      <c r="H674" t="n">
+        <v>353.2247368421052</v>
+      </c>
+      <c r="I674" t="n">
+        <v>356.5082352941176</v>
+      </c>
+      <c r="J674" t="n">
+        <v>355.5633333333333</v>
+      </c>
+      <c r="K674" t="n">
+        <v>358.4109090909091</v>
+      </c>
+      <c r="L674" t="n">
+        <v>373.03</v>
+      </c>
+      <c r="M674" t="n">
+        <v>396.2218181818182</v>
+      </c>
+      <c r="N674" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="C675" t="n">
+        <v>337.9</v>
+      </c>
+      <c r="D675" t="n">
+        <v>340.6066666666667</v>
+      </c>
+      <c r="E675" t="n">
+        <v>352.1766666666667</v>
+      </c>
+      <c r="F675" t="n">
+        <v>359.2884210526316</v>
+      </c>
+      <c r="G675" t="n">
+        <v>361.2184210526316</v>
+      </c>
+      <c r="H675" t="n">
+        <v>353.9384210526316</v>
+      </c>
+      <c r="I675" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="J675" t="n">
+        <v>358.1771428571428</v>
+      </c>
+      <c r="K675" t="n">
+        <v>366.0763636363636</v>
+      </c>
+      <c r="L675" t="n">
+        <v>372.48</v>
+      </c>
+      <c r="M675" t="n">
+        <v>400.2127272727273</v>
+      </c>
+      <c r="N675" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29065,7 +29209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35893,6 +36037,36 @@
       </c>
       <c r="B682" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -36066,28 +36240,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3508664189153184</v>
+        <v>0.3338825409653007</v>
       </c>
       <c r="J2" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K2" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03181927799644568</v>
+        <v>0.02892971785571108</v>
       </c>
       <c r="M2" t="n">
-        <v>11.27571393205507</v>
+        <v>11.29505606961492</v>
       </c>
       <c r="N2" t="n">
-        <v>208.3292414041698</v>
+        <v>209.1472450707327</v>
       </c>
       <c r="O2" t="n">
-        <v>14.43361498046036</v>
+        <v>14.46192397541671</v>
       </c>
       <c r="P2" t="n">
-        <v>329.5201422007859</v>
+        <v>329.6950284880747</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36144,28 +36318,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5401846842751531</v>
+        <v>0.5266789835586719</v>
       </c>
       <c r="J3" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K3" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07885969132670834</v>
+        <v>0.07555525262977003</v>
       </c>
       <c r="M3" t="n">
-        <v>10.95950814653512</v>
+        <v>10.96682428134702</v>
       </c>
       <c r="N3" t="n">
-        <v>188.0889648053796</v>
+        <v>188.2526044885018</v>
       </c>
       <c r="O3" t="n">
-        <v>13.71455302973376</v>
+        <v>13.72051764652128</v>
       </c>
       <c r="P3" t="n">
-        <v>332.8050871580798</v>
+        <v>332.9440912204711</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36222,28 +36396,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.511013011870347</v>
+        <v>0.4975908975384949</v>
       </c>
       <c r="J4" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K4" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08045854269997277</v>
+        <v>0.07693605129099601</v>
       </c>
       <c r="M4" t="n">
-        <v>10.4053403230641</v>
+        <v>10.42795509257749</v>
       </c>
       <c r="N4" t="n">
-        <v>164.9474995713109</v>
+        <v>165.0363741432526</v>
       </c>
       <c r="O4" t="n">
-        <v>12.84318883966559</v>
+        <v>12.84664836224813</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5321579979644</v>
+        <v>340.6699055363474</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36300,28 +36474,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4214649046462383</v>
+        <v>0.4146351429301777</v>
       </c>
       <c r="J5" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K5" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05866402514041735</v>
+        <v>0.05735407418615035</v>
       </c>
       <c r="M5" t="n">
-        <v>9.671964007359701</v>
+        <v>9.655597557027994</v>
       </c>
       <c r="N5" t="n">
-        <v>157.2978498991911</v>
+        <v>156.7215100181825</v>
       </c>
       <c r="O5" t="n">
-        <v>12.54184395929048</v>
+        <v>12.51884619356682</v>
       </c>
       <c r="P5" t="n">
-        <v>347.7670102937061</v>
+        <v>347.8370916474522</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36378,28 +36552,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5134944750199795</v>
+        <v>0.5102905875495652</v>
       </c>
       <c r="J6" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K6" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08906020973711615</v>
+        <v>0.0887454716740611</v>
       </c>
       <c r="M6" t="n">
-        <v>9.804882399396057</v>
+        <v>9.783171969873381</v>
       </c>
       <c r="N6" t="n">
-        <v>149.4447286132327</v>
+        <v>148.8783534550849</v>
       </c>
       <c r="O6" t="n">
-        <v>12.2247588366083</v>
+        <v>12.20157176166599</v>
       </c>
       <c r="P6" t="n">
-        <v>348.7171518054623</v>
+        <v>348.7500690409731</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36456,28 +36630,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4995225845295241</v>
+        <v>0.4961216744707531</v>
       </c>
       <c r="J7" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K7" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08118607644834108</v>
+        <v>0.08090662421511996</v>
       </c>
       <c r="M7" t="n">
-        <v>9.866522256602535</v>
+        <v>9.831664276162206</v>
       </c>
       <c r="N7" t="n">
-        <v>158.328698187622</v>
+        <v>157.5529179977563</v>
       </c>
       <c r="O7" t="n">
-        <v>12.5828732087557</v>
+        <v>12.55200852444565</v>
       </c>
       <c r="P7" t="n">
-        <v>350.8715826303231</v>
+        <v>350.9060557514767</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36534,28 +36708,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4601790324546052</v>
+        <v>0.455889444724559</v>
       </c>
       <c r="J8" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K8" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07560457117304042</v>
+        <v>0.07492104738039351</v>
       </c>
       <c r="M8" t="n">
-        <v>9.692898964308871</v>
+        <v>9.673189172125687</v>
       </c>
       <c r="N8" t="n">
-        <v>144.250277740331</v>
+        <v>143.700616959532</v>
       </c>
       <c r="O8" t="n">
-        <v>12.01042371194002</v>
+        <v>11.98751921623202</v>
       </c>
       <c r="P8" t="n">
-        <v>349.474791818389</v>
+        <v>349.5183126010744</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36612,28 +36786,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4791425441684026</v>
+        <v>0.4809475441914465</v>
       </c>
       <c r="J9" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K9" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08635123466068828</v>
+        <v>0.08774163277338209</v>
       </c>
       <c r="M9" t="n">
-        <v>9.255186984528553</v>
+        <v>9.227190691076434</v>
       </c>
       <c r="N9" t="n">
-        <v>135.2360422636021</v>
+        <v>134.580791212452</v>
       </c>
       <c r="O9" t="n">
-        <v>11.62910324417159</v>
+        <v>11.60089613833569</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5729635162239</v>
+        <v>347.5546347131105</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36690,28 +36864,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3619809977431934</v>
+        <v>0.3618898513687387</v>
       </c>
       <c r="J10" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K10" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04799742089318304</v>
+        <v>0.04844330744458358</v>
       </c>
       <c r="M10" t="n">
-        <v>9.486713868781003</v>
+        <v>9.448245975597878</v>
       </c>
       <c r="N10" t="n">
-        <v>147.1278545409069</v>
+        <v>146.3600150091379</v>
       </c>
       <c r="O10" t="n">
-        <v>12.12962713940156</v>
+        <v>12.09793432818752</v>
       </c>
       <c r="P10" t="n">
-        <v>349.4500126661495</v>
+        <v>349.4509422545543</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36768,28 +36942,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3922506274466684</v>
+        <v>0.3863273670079791</v>
       </c>
       <c r="J11" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K11" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05572402971748469</v>
+        <v>0.05460389326230686</v>
       </c>
       <c r="M11" t="n">
-        <v>9.585226041226992</v>
+        <v>9.561936715255381</v>
       </c>
       <c r="N11" t="n">
-        <v>145.9272619529251</v>
+        <v>145.366600760413</v>
       </c>
       <c r="O11" t="n">
-        <v>12.0800356768068</v>
+        <v>12.05680723742455</v>
       </c>
       <c r="P11" t="n">
-        <v>359.1625467614314</v>
+        <v>359.2226098372102</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36846,28 +37020,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3610944550014277</v>
+        <v>0.3567315447451113</v>
       </c>
       <c r="J12" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K12" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05540004955385436</v>
+        <v>0.05459432754406479</v>
       </c>
       <c r="M12" t="n">
-        <v>8.951975486490088</v>
+        <v>8.934408580034074</v>
       </c>
       <c r="N12" t="n">
-        <v>124.4150872055532</v>
+        <v>123.9378215463353</v>
       </c>
       <c r="O12" t="n">
-        <v>11.15415111989941</v>
+        <v>11.13273648059341</v>
       </c>
       <c r="P12" t="n">
-        <v>371.0718967629781</v>
+        <v>371.1164284097839</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36924,28 +37098,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2468323850571428</v>
+        <v>0.207117404224411</v>
       </c>
       <c r="J13" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K13" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005209124958245326</v>
+        <v>0.003648284284910153</v>
       </c>
       <c r="M13" t="n">
-        <v>19.35189283502232</v>
+        <v>19.49986084423866</v>
       </c>
       <c r="N13" t="n">
-        <v>639.4606498759862</v>
+        <v>647.5684682465735</v>
       </c>
       <c r="O13" t="n">
-        <v>25.28755919174459</v>
+        <v>25.44736662695324</v>
       </c>
       <c r="P13" t="n">
-        <v>443.2749480936301</v>
+        <v>443.6885179885753</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36983,7 +37157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N672"/>
+  <dimension ref="A1:N675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78051,6 +78225,222 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-37.301955239894134,175.91499977239832</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-37.30258474390486,175.9154269083717</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-37.3032128815166,175.91586152515762</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-37.303824516663155,175.91633560348617</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-37.30439661968404,175.91688393648892</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-37.305026998599736,175.9173056594184</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>-37.30560936419274,175.91782025290505</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-37.30618930097434,175.9183437026187</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>-37.306777260977086,175.91885472800521</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>-37.307325975912455,175.91941523185437</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>-37.30763669165722,175.92016373533008</t>
+        </is>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>-37.30718184913086,175.92118244053387</t>
+        </is>
+      </c>
+      <c r="N673" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-37.30205080572983,175.91474696634933</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>-37.302653202046315,175.91524581226608</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-37.30326141610305,175.9157372966609</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-37.30385968544125,175.91625616286365</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>-37.30446662822149,175.91673915455866</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-37.3050592557273,175.91724435900488</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>-37.30566807165604,175.91771978198517</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>-37.30623120472278,175.91827391021664</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>-37.30681500976289,175.91879273763314</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>-37.30737486022285,175.91935225535593</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>-37.30771764960694,175.9201089024616</t>
+        </is>
+      </c>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>-37.307724993764914,175.92097091343248</t>
+        </is>
+      </c>
+      <c r="N674" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-37.302004101555475,175.9148705159626</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>-37.302597495553925,175.91539317580853</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>-37.30324078265376,175.91579010982872</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-37.30384128611303,175.91629772401544</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>-37.30442864640136,175.91681770335896</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>-37.305037486732914,175.9172857281176</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>-37.30566427667726,175.91772627665404</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-37.30618795765998,175.91834593996117</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>-37.30680073761563,175.91881617510802</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>-37.30732674623857,175.9194142394624</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>-37.30772200644316,175.92010595157015</t>
+        </is>
+      </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>-37.307690671961275,175.9209842801091</t>
+        </is>
+      </c>
+      <c r="N675" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N675"/>
+  <dimension ref="A1:N680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29141,9 +29141,7 @@
       <c r="L674" t="n">
         <v>373.03</v>
       </c>
-      <c r="M674" t="n">
-        <v>396.2218181818182</v>
-      </c>
+      <c r="M674" t="inlineStr"/>
       <c r="N674" t="inlineStr">
         <is>
           <t>L8</t>
@@ -29189,10 +29187,248 @@
       <c r="L675" t="n">
         <v>372.48</v>
       </c>
-      <c r="M675" t="n">
-        <v>400.2127272727273</v>
-      </c>
+      <c r="M675" t="inlineStr"/>
       <c r="N675" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>340.24</v>
+      </c>
+      <c r="C676" t="n">
+        <v>347.78</v>
+      </c>
+      <c r="D676" t="n">
+        <v>347.3666666666667</v>
+      </c>
+      <c r="E676" t="n">
+        <v>357.4166666666667</v>
+      </c>
+      <c r="F676" t="n">
+        <v>354.161052631579</v>
+      </c>
+      <c r="G676" t="n">
+        <v>360.171052631579</v>
+      </c>
+      <c r="H676" t="n">
+        <v>364.181052631579</v>
+      </c>
+      <c r="I676" t="n">
+        <v>367.1711764705883</v>
+      </c>
+      <c r="J676" t="n">
+        <v>357.69</v>
+      </c>
+      <c r="K676" t="n">
+        <v>365.3081818181818</v>
+      </c>
+      <c r="L676" t="n">
+        <v>393.43</v>
+      </c>
+      <c r="M676" t="n">
+        <v>445.8563636363637</v>
+      </c>
+      <c r="N676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>319.9066666666667</v>
+      </c>
+      <c r="C677" t="n">
+        <v>333.86</v>
+      </c>
+      <c r="D677" t="n">
+        <v>338.9788888888889</v>
+      </c>
+      <c r="E677" t="n">
+        <v>351.8588888888889</v>
+      </c>
+      <c r="F677" t="n">
+        <v>353.22</v>
+      </c>
+      <c r="G677" t="n">
+        <v>357.93</v>
+      </c>
+      <c r="H677" t="n">
+        <v>360.19</v>
+      </c>
+      <c r="I677" t="n">
+        <v>354.8547058823529</v>
+      </c>
+      <c r="J677" t="n">
+        <v>347.5504761904762</v>
+      </c>
+      <c r="K677" t="n">
+        <v>364.4627272727273</v>
+      </c>
+      <c r="L677" t="n">
+        <v>385.05</v>
+      </c>
+      <c r="M677" t="n">
+        <v>466.1554545454546</v>
+      </c>
+      <c r="N677" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>329.07</v>
+      </c>
+      <c r="C678" t="n">
+        <v>343.29</v>
+      </c>
+      <c r="D678" t="n">
+        <v>352.1533333333333</v>
+      </c>
+      <c r="E678" t="n">
+        <v>356.8533333333333</v>
+      </c>
+      <c r="F678" t="n">
+        <v>359.5805263157895</v>
+      </c>
+      <c r="G678" t="n">
+        <v>364.3905263157895</v>
+      </c>
+      <c r="H678" t="n">
+        <v>364.4405263157895</v>
+      </c>
+      <c r="I678" t="n">
+        <v>363.1205882352941</v>
+      </c>
+      <c r="J678" t="n">
+        <v>357.89</v>
+      </c>
+      <c r="K678" t="n">
+        <v>370.1090909090909</v>
+      </c>
+      <c r="L678" t="n">
+        <v>386.62</v>
+      </c>
+      <c r="M678" t="n">
+        <v>456.3581818181818</v>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>322.2166666666667</v>
+      </c>
+      <c r="C679" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="D679" t="n">
+        <v>345.1422222222222</v>
+      </c>
+      <c r="E679" t="n">
+        <v>352.8322222222222</v>
+      </c>
+      <c r="F679" t="n">
+        <v>357.6347368421053</v>
+      </c>
+      <c r="G679" t="n">
+        <v>359.4247368421052</v>
+      </c>
+      <c r="H679" t="n">
+        <v>366.4347368421053</v>
+      </c>
+      <c r="I679" t="n">
+        <v>363.0982352941176</v>
+      </c>
+      <c r="J679" t="n">
+        <v>354.0933333333333</v>
+      </c>
+      <c r="K679" t="n">
+        <v>370.800909090909</v>
+      </c>
+      <c r="L679" t="n">
+        <v>381.88</v>
+      </c>
+      <c r="M679" t="n">
+        <v>464.3818181818182</v>
+      </c>
+      <c r="N679" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>335.22</v>
+      </c>
+      <c r="C680" t="n">
+        <v>342.74</v>
+      </c>
+      <c r="D680" t="n">
+        <v>353.1366666666667</v>
+      </c>
+      <c r="E680" t="n">
+        <v>353.8166666666667</v>
+      </c>
+      <c r="F680" t="n">
+        <v>363.3252631578948</v>
+      </c>
+      <c r="G680" t="n">
+        <v>364.5452631578947</v>
+      </c>
+      <c r="H680" t="n">
+        <v>361.9052631578948</v>
+      </c>
+      <c r="I680" t="n">
+        <v>360.1464705882353</v>
+      </c>
+      <c r="J680" t="n">
+        <v>361.6171428571428</v>
+      </c>
+      <c r="K680" t="n">
+        <v>370.7318181818182</v>
+      </c>
+      <c r="L680" t="n">
+        <v>385.72</v>
+      </c>
+      <c r="M680" t="n">
+        <v>470.6636363636364</v>
+      </c>
+      <c r="N680" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29209,7 +29445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B685"/>
+  <dimension ref="A1:B690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36067,6 +36303,56 @@
       </c>
       <c r="B685" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -36240,28 +36526,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3338825409653007</v>
+        <v>0.317732609483432</v>
       </c>
       <c r="J2" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02892971785571108</v>
+        <v>0.02657168725142289</v>
       </c>
       <c r="M2" t="n">
-        <v>11.29505606961492</v>
+        <v>11.27259915551793</v>
       </c>
       <c r="N2" t="n">
-        <v>209.1472450707327</v>
+        <v>208.4451934366826</v>
       </c>
       <c r="O2" t="n">
-        <v>14.46192397541671</v>
+        <v>14.4376311573846</v>
       </c>
       <c r="P2" t="n">
-        <v>329.6950284880747</v>
+        <v>329.862640423135</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36318,28 +36604,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5266789835586719</v>
+        <v>0.5179177275068482</v>
       </c>
       <c r="J3" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07555525262977003</v>
+        <v>0.07433807486658384</v>
       </c>
       <c r="M3" t="n">
-        <v>10.96682428134702</v>
+        <v>10.91155287890576</v>
       </c>
       <c r="N3" t="n">
-        <v>188.2526044885018</v>
+        <v>186.8665866927071</v>
       </c>
       <c r="O3" t="n">
-        <v>13.72051764652128</v>
+        <v>13.6699153871817</v>
       </c>
       <c r="P3" t="n">
-        <v>332.9440912204711</v>
+        <v>333.0349642373719</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36396,28 +36682,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4975908975384949</v>
+        <v>0.4865596599379723</v>
       </c>
       <c r="J4" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K4" t="n">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07693605129099601</v>
+        <v>0.07481375215196551</v>
       </c>
       <c r="M4" t="n">
-        <v>10.42795509257749</v>
+        <v>10.39519737177729</v>
       </c>
       <c r="N4" t="n">
-        <v>165.0363741432526</v>
+        <v>164.0705464794331</v>
       </c>
       <c r="O4" t="n">
-        <v>12.84664836224813</v>
+        <v>12.80900255599292</v>
       </c>
       <c r="P4" t="n">
-        <v>340.6699055363474</v>
+        <v>340.7839179865562</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36474,28 +36760,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4146351429301777</v>
+        <v>0.4077089061131117</v>
       </c>
       <c r="J5" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K5" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05735407418615035</v>
+        <v>0.05643040024044688</v>
       </c>
       <c r="M5" t="n">
-        <v>9.655597557027994</v>
+        <v>9.604207248685087</v>
       </c>
       <c r="N5" t="n">
-        <v>156.7215100181825</v>
+        <v>155.4705088474932</v>
       </c>
       <c r="O5" t="n">
-        <v>12.51884619356682</v>
+        <v>12.46878136978483</v>
       </c>
       <c r="P5" t="n">
-        <v>347.8370916474522</v>
+        <v>347.9087135847307</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36552,28 +36838,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5102905875495652</v>
+        <v>0.5028531594425383</v>
       </c>
       <c r="J6" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K6" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0887454716740611</v>
+        <v>0.0876161655366694</v>
       </c>
       <c r="M6" t="n">
-        <v>9.783171969873381</v>
+        <v>9.738074249534666</v>
       </c>
       <c r="N6" t="n">
-        <v>148.8783534550849</v>
+        <v>147.8139484654554</v>
       </c>
       <c r="O6" t="n">
-        <v>12.20157176166599</v>
+        <v>12.1578759849513</v>
       </c>
       <c r="P6" t="n">
-        <v>348.7500690409731</v>
+        <v>348.8269558001945</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36630,28 +36916,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4961216744707531</v>
+        <v>0.4918855223423526</v>
       </c>
       <c r="J7" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K7" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08090662421511996</v>
+        <v>0.08088170574671982</v>
       </c>
       <c r="M7" t="n">
-        <v>9.831664276162206</v>
+        <v>9.770921973638201</v>
       </c>
       <c r="N7" t="n">
-        <v>157.5529179977563</v>
+        <v>156.2337092193721</v>
       </c>
       <c r="O7" t="n">
-        <v>12.55200852444565</v>
+        <v>12.49934835178907</v>
       </c>
       <c r="P7" t="n">
-        <v>350.9060557514767</v>
+        <v>350.9492852941543</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36708,28 +36994,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.455889444724559</v>
+        <v>0.4592619548633076</v>
       </c>
       <c r="J8" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K8" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07492104738039351</v>
+        <v>0.07715399625270092</v>
       </c>
       <c r="M8" t="n">
-        <v>9.673189172125687</v>
+        <v>9.608924102118733</v>
       </c>
       <c r="N8" t="n">
-        <v>143.700616959532</v>
+        <v>142.4866636304473</v>
       </c>
       <c r="O8" t="n">
-        <v>11.98751921623202</v>
+        <v>11.93677777419214</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5183126010744</v>
+        <v>349.4838515979414</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36786,28 +37072,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4809475441914465</v>
+        <v>0.4836206055588702</v>
       </c>
       <c r="J9" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K9" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08774163277338209</v>
+        <v>0.08997292908088239</v>
       </c>
       <c r="M9" t="n">
-        <v>9.227190691076434</v>
+        <v>9.177152594646458</v>
       </c>
       <c r="N9" t="n">
-        <v>134.580791212452</v>
+        <v>133.5254083518843</v>
       </c>
       <c r="O9" t="n">
-        <v>11.60089613833569</v>
+        <v>11.55531948289982</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5546347131105</v>
+        <v>347.5272905238609</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36864,28 +37150,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3618898513687387</v>
+        <v>0.356743869570842</v>
       </c>
       <c r="J10" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K10" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04844330744458358</v>
+        <v>0.04784294857349625</v>
       </c>
       <c r="M10" t="n">
-        <v>9.448245975597878</v>
+        <v>9.399795480877893</v>
       </c>
       <c r="N10" t="n">
-        <v>146.3600150091379</v>
+        <v>145.3160997756689</v>
       </c>
       <c r="O10" t="n">
-        <v>12.09793432818752</v>
+        <v>12.05471276205571</v>
       </c>
       <c r="P10" t="n">
-        <v>349.4509422545543</v>
+        <v>349.5030557797949</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36942,28 +37228,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3863273670079791</v>
+        <v>0.3846333925067962</v>
       </c>
       <c r="J11" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K11" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05460389326230686</v>
+        <v>0.05504453862629921</v>
       </c>
       <c r="M11" t="n">
-        <v>9.561936715255381</v>
+        <v>9.496168101152389</v>
       </c>
       <c r="N11" t="n">
-        <v>145.366600760413</v>
+        <v>144.1017929975185</v>
       </c>
       <c r="O11" t="n">
-        <v>12.05680723742455</v>
+        <v>12.00424062560887</v>
       </c>
       <c r="P11" t="n">
-        <v>359.2226098372102</v>
+        <v>359.2398701980451</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37020,28 +37306,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3567315447451113</v>
+        <v>0.3672539213649408</v>
       </c>
       <c r="J12" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K12" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05459432754406479</v>
+        <v>0.05843789855970594</v>
       </c>
       <c r="M12" t="n">
-        <v>8.934408580034074</v>
+        <v>8.908467487531443</v>
       </c>
       <c r="N12" t="n">
-        <v>123.9378215463353</v>
+        <v>123.2431272536977</v>
       </c>
       <c r="O12" t="n">
-        <v>11.13273648059341</v>
+        <v>11.10149211834597</v>
       </c>
       <c r="P12" t="n">
-        <v>371.1164284097839</v>
+        <v>371.0082933359888</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37098,28 +37384,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.207117404224411</v>
+        <v>0.2741569780346855</v>
       </c>
       <c r="J13" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K13" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003648284284910153</v>
+        <v>0.006560871325029694</v>
       </c>
       <c r="M13" t="n">
-        <v>19.49986084423866</v>
+        <v>19.23552970943169</v>
       </c>
       <c r="N13" t="n">
-        <v>647.5684682465735</v>
+        <v>632.9051501598018</v>
       </c>
       <c r="O13" t="n">
-        <v>25.44736662695324</v>
+        <v>25.15760620885465</v>
       </c>
       <c r="P13" t="n">
-        <v>443.6885179885753</v>
+        <v>442.9884849479182</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37157,7 +37443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N675"/>
+  <dimension ref="A1:N680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78358,11 +78644,7 @@
           <t>-37.30771764960694,175.9201089024616</t>
         </is>
       </c>
-      <c r="M674" t="inlineStr">
-        <is>
-          <t>-37.307724993764914,175.92097091343248</t>
-        </is>
-      </c>
+      <c r="M674" t="inlineStr"/>
       <c r="N674" t="inlineStr">
         <is>
           <t>L8</t>
@@ -78430,12 +78712,368 @@
           <t>-37.30772200644316,175.92010595157015</t>
         </is>
       </c>
-      <c r="M675" t="inlineStr">
-        <is>
-          <t>-37.307690671961275,175.9209842801091</t>
-        </is>
-      </c>
+      <c r="M675" t="inlineStr"/>
       <c r="N675" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>-37.30193672250925,175.91504875731462</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>-37.30255943320262,175.9154938639074</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>-37.30321403343956,175.9158585767162</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>-37.3038184094178,175.91634939875337</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>-37.30445256025002,175.91676824803253</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>-37.305042676036834,175.91727586653212</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>-37.30560981197842,175.9178194865736</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>-37.30617350270375,175.9183700152457</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>-37.30680339755523,175.91881180700216</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>-37.30733156790935,175.91940802782344</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>-37.30755605054712,175.92021835347546</t>
+        </is>
+      </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>-37.307298136771855,175.92113715268164</t>
+        </is>
+      </c>
+      <c r="N676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-37.302015055281316,175.91484153939732</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>-37.30261305948781,175.91535200372135</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>-37.30324722373931,175.91577362330077</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-37.30384267346069,175.91629459021982</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>-37.304456949281104,175.91675917123538</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>-37.30505377958001,175.9172547657078</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>-37.30563103421619,175.91778316724248</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>-37.30624015271517,175.91825900695196</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>-37.30685876222689,175.91872088798894</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>-37.307336874599905,175.91940119134412</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>-37.30762243291632,175.92017339277066</t>
+        </is>
+      </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>-37.307123564578056,175.92120513921728</t>
+        </is>
+      </c>
+      <c r="N677" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>-37.301979754210954,175.91493492339632</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>-37.30257673077929,175.9154481058675</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>-37.30319509265167,175.91590705718383</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>-37.30382086880908,175.91634384339187</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>-37.30442728403309,175.9168205208191</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>-37.30502177017813,175.9173155953332</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>-37.30560843223876,175.91782184783233</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>-37.306195422285455,175.91833350733424</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>-37.30680230549793,175.9188136003594</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>-37.30730143388871,175.91944684871623</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>-37.307609996125095,175.92018181620207</t>
+        </is>
+      </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>-37.30720782113307,175.92117232583178</t>
+        </is>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>-37.302006156182166,175.91486508073416</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>-37.30258636193938,175.91542262810754</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>-37.303222835535564,175.9158360470195</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>-37.303838424101855,175.9163041888381</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>-37.3044363591229,175.91680175297904</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>-37.30504637374136,175.91726883953214</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>-37.30559782811231,175.91783999551546</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>-37.30619554324739,175.91833330586732</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>-37.306823036381275,175.91877955645143</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>-37.30729709153032,175.9194524428624</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>-37.307647544142924,175.92015638494237</t>
+        </is>
+      </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>-37.30713881785304,175.9211991988943</t>
+        </is>
+      </c>
+      <c r="N679" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>-37.3019560617471,175.9149975983099</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>-37.302578849634955,175.9154425007609</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>-37.30319120161004,175.91591701660823</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>-37.3038341262336,175.91631389702852</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>-37.30440981871173,175.91685664014122</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>-37.30502100351673,175.91731705227022</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>-37.30562191338496,175.91779877646303</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>-37.30621151658685,175.91830670162776</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>-37.30678195422562,175.91884702084366</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>-37.30729752519555,175.91945188418293</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>-37.307617125495916,175.92017698748376</t>
+        </is>
+      </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>-37.307084794207654,175.92122023816262</t>
+        </is>
+      </c>
+      <c r="N680" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N680"/>
+  <dimension ref="A1:N683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29434,6 +29434,146 @@
         </is>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>312.54</v>
+      </c>
+      <c r="C681" t="n">
+        <v>318.32</v>
+      </c>
+      <c r="D681" t="n">
+        <v>331.8666666666667</v>
+      </c>
+      <c r="E681" t="n">
+        <v>335.4566666666667</v>
+      </c>
+      <c r="F681" t="n">
+        <v>341.4031578947368</v>
+      </c>
+      <c r="G681" t="n">
+        <v>338.8131578947368</v>
+      </c>
+      <c r="H681" t="n">
+        <v>338.8031578947368</v>
+      </c>
+      <c r="I681" t="n">
+        <v>338.1276470588235</v>
+      </c>
+      <c r="J681" t="n">
+        <v>332.4914285714286</v>
+      </c>
+      <c r="K681" t="n">
+        <v>342.9627272727272</v>
+      </c>
+      <c r="L681" t="n">
+        <v>353.52</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+      <c r="N681" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>336.0566666666667</v>
+      </c>
+      <c r="C682" t="n">
+        <v>338.98</v>
+      </c>
+      <c r="D682" t="n">
+        <v>352.0022222222222</v>
+      </c>
+      <c r="E682" t="n">
+        <v>360.1522222222222</v>
+      </c>
+      <c r="F682" t="n">
+        <v>366.4389473684211</v>
+      </c>
+      <c r="G682" t="n">
+        <v>365.518947368421</v>
+      </c>
+      <c r="H682" t="n">
+        <v>362.828947368421</v>
+      </c>
+      <c r="I682" t="n">
+        <v>362.3435294117647</v>
+      </c>
+      <c r="J682" t="n">
+        <v>360.0604761904762</v>
+      </c>
+      <c r="K682" t="n">
+        <v>370.5145454545454</v>
+      </c>
+      <c r="L682" t="n">
+        <v>385.71</v>
+      </c>
+      <c r="M682" t="n">
+        <v>474.3990909090909</v>
+      </c>
+      <c r="N682" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>348.1333333333333</v>
+      </c>
+      <c r="C683" t="n">
+        <v>322.86</v>
+      </c>
+      <c r="D683" t="n">
+        <v>336.2611111111111</v>
+      </c>
+      <c r="E683" t="n">
+        <v>357.0011111111111</v>
+      </c>
+      <c r="F683" t="n">
+        <v>355.0115789473684</v>
+      </c>
+      <c r="G683" t="n">
+        <v>358.2115789473684</v>
+      </c>
+      <c r="H683" t="n">
+        <v>360.6715789473685</v>
+      </c>
+      <c r="I683" t="n">
+        <v>366.1970588235294</v>
+      </c>
+      <c r="J683" t="n">
+        <v>358.9295238095238</v>
+      </c>
+      <c r="K683" t="n">
+        <v>358.4345454545455</v>
+      </c>
+      <c r="L683" t="n">
+        <v>384.84</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+      <c r="N683" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29445,7 +29585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36353,6 +36493,36 @@
       </c>
       <c r="B690" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -36526,28 +36696,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.317732609483432</v>
+        <v>0.3114888959356171</v>
       </c>
       <c r="J2" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K2" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02657168725142289</v>
+        <v>0.0256545574253354</v>
       </c>
       <c r="M2" t="n">
-        <v>11.27259915551793</v>
+        <v>11.27729565733994</v>
       </c>
       <c r="N2" t="n">
-        <v>208.4451934366826</v>
+        <v>208.7078665139844</v>
       </c>
       <c r="O2" t="n">
-        <v>14.4376311573846</v>
+        <v>14.44672511380985</v>
       </c>
       <c r="P2" t="n">
-        <v>329.862640423135</v>
+        <v>329.9275383658027</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36604,28 +36774,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5179177275068482</v>
+        <v>0.4971479552465124</v>
       </c>
       <c r="J3" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K3" t="n">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07433807486658384</v>
+        <v>0.0686720054111124</v>
       </c>
       <c r="M3" t="n">
-        <v>10.91155287890576</v>
+        <v>10.95793310159689</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8665866927071</v>
+        <v>188.4743420317653</v>
       </c>
       <c r="O3" t="n">
-        <v>13.6699153871817</v>
+        <v>13.72859577785599</v>
       </c>
       <c r="P3" t="n">
-        <v>333.0349642373719</v>
+        <v>333.2511846699297</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36682,28 +36852,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4865596599379723</v>
+        <v>0.4724985175791026</v>
       </c>
       <c r="J4" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K4" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07481375215196551</v>
+        <v>0.07098585798518109</v>
       </c>
       <c r="M4" t="n">
-        <v>10.39519737177729</v>
+        <v>10.42144247335605</v>
       </c>
       <c r="N4" t="n">
-        <v>164.0705464794331</v>
+        <v>164.5793492642372</v>
       </c>
       <c r="O4" t="n">
-        <v>12.80900255599292</v>
+        <v>12.82884832181896</v>
       </c>
       <c r="P4" t="n">
-        <v>340.7839179865562</v>
+        <v>340.9298668960845</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36760,28 +36930,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4077089061131117</v>
+        <v>0.3999699379085104</v>
       </c>
       <c r="J5" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K5" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05643040024044688</v>
+        <v>0.05463791273185103</v>
       </c>
       <c r="M5" t="n">
-        <v>9.604207248685087</v>
+        <v>9.599779737879606</v>
       </c>
       <c r="N5" t="n">
-        <v>155.4705088474932</v>
+        <v>155.5976141902464</v>
       </c>
       <c r="O5" t="n">
-        <v>12.46878136978483</v>
+        <v>12.47387727173257</v>
       </c>
       <c r="P5" t="n">
-        <v>347.9087135847307</v>
+        <v>347.988946714976</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36838,28 +37008,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5028531594425383</v>
+        <v>0.495231134452333</v>
       </c>
       <c r="J6" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K6" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0876161655366694</v>
+        <v>0.08553520224964728</v>
       </c>
       <c r="M6" t="n">
-        <v>9.738074249534666</v>
+        <v>9.741993322766744</v>
       </c>
       <c r="N6" t="n">
-        <v>147.8139484654554</v>
+        <v>147.8956694706097</v>
       </c>
       <c r="O6" t="n">
-        <v>12.1578759849513</v>
+        <v>12.16123634630171</v>
       </c>
       <c r="P6" t="n">
-        <v>348.8269558001945</v>
+        <v>348.9060747212235</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36916,28 +37086,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4918855223423526</v>
+        <v>0.4823437716398544</v>
       </c>
       <c r="J7" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K7" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08088170574671982</v>
+        <v>0.07821674501834264</v>
       </c>
       <c r="M7" t="n">
-        <v>9.770921973638201</v>
+        <v>9.780012433899879</v>
       </c>
       <c r="N7" t="n">
-        <v>156.2337092193721</v>
+        <v>156.5711330243864</v>
       </c>
       <c r="O7" t="n">
-        <v>12.49934835178907</v>
+        <v>12.51283872765834</v>
       </c>
       <c r="P7" t="n">
-        <v>350.9492852941543</v>
+        <v>351.0470395987887</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36994,28 +37164,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4592619548633076</v>
+        <v>0.4519896982863133</v>
       </c>
       <c r="J8" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K8" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07715399625270092</v>
+        <v>0.07518526214965671</v>
       </c>
       <c r="M8" t="n">
-        <v>9.608924102118733</v>
+        <v>9.601550701129851</v>
       </c>
       <c r="N8" t="n">
-        <v>142.4866636304473</v>
+        <v>142.6414161337967</v>
       </c>
       <c r="O8" t="n">
-        <v>11.93677777419214</v>
+        <v>11.94325818752139</v>
       </c>
       <c r="P8" t="n">
-        <v>349.4838515979414</v>
+        <v>349.5583592770203</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37072,28 +37242,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4836206055588702</v>
+        <v>0.4790290540753863</v>
       </c>
       <c r="J9" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K9" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08997292908088239</v>
+        <v>0.08869377660427735</v>
       </c>
       <c r="M9" t="n">
-        <v>9.177152594646458</v>
+        <v>9.181073602005027</v>
       </c>
       <c r="N9" t="n">
-        <v>133.5254083518843</v>
+        <v>133.7519871141101</v>
       </c>
       <c r="O9" t="n">
-        <v>11.55531948289982</v>
+        <v>11.56511941633592</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5272905238609</v>
+        <v>347.5743665000448</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37150,28 +37320,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.356743869570842</v>
+        <v>0.3485557882569534</v>
       </c>
       <c r="J10" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K10" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04784294857349625</v>
+        <v>0.04584729476364868</v>
       </c>
       <c r="M10" t="n">
-        <v>9.399795480877893</v>
+        <v>9.398435782282245</v>
       </c>
       <c r="N10" t="n">
-        <v>145.3160997756689</v>
+        <v>145.7796341893532</v>
       </c>
       <c r="O10" t="n">
-        <v>12.05471276205571</v>
+        <v>12.07392372799138</v>
       </c>
       <c r="P10" t="n">
-        <v>349.5030557797949</v>
+        <v>349.5862680132205</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37228,28 +37398,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3846333925067962</v>
+        <v>0.3725848918544575</v>
       </c>
       <c r="J11" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K11" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05504453862629921</v>
+        <v>0.05183884287364426</v>
       </c>
       <c r="M11" t="n">
-        <v>9.496168101152389</v>
+        <v>9.511558273133744</v>
       </c>
       <c r="N11" t="n">
-        <v>144.1017929975185</v>
+        <v>144.7889470313293</v>
       </c>
       <c r="O11" t="n">
-        <v>12.00424062560887</v>
+        <v>12.0328278900402</v>
       </c>
       <c r="P11" t="n">
-        <v>359.2398701980451</v>
+        <v>359.3633986146276</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37306,28 +37476,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3672539213649408</v>
+        <v>0.3612309078812893</v>
       </c>
       <c r="J12" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K12" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05843789855970594</v>
+        <v>0.05657397781768825</v>
       </c>
       <c r="M12" t="n">
-        <v>8.908467487531443</v>
+        <v>8.92642315863127</v>
       </c>
       <c r="N12" t="n">
-        <v>123.2431272536977</v>
+        <v>124.0114903653589</v>
       </c>
       <c r="O12" t="n">
-        <v>11.10149211834597</v>
+        <v>11.13604464634364</v>
       </c>
       <c r="P12" t="n">
-        <v>371.0082933359888</v>
+        <v>371.070338141068</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37384,28 +37554,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2741569780346855</v>
+        <v>0.2844363254038199</v>
       </c>
       <c r="J13" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K13" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006560871325029694</v>
+        <v>0.007073400456063306</v>
       </c>
       <c r="M13" t="n">
-        <v>19.23552970943169</v>
+        <v>19.24283860353216</v>
       </c>
       <c r="N13" t="n">
-        <v>632.9051501598018</v>
+        <v>632.7903171466232</v>
       </c>
       <c r="O13" t="n">
-        <v>25.15760620885465</v>
+        <v>25.15532383307007</v>
       </c>
       <c r="P13" t="n">
-        <v>442.9884849479182</v>
+        <v>442.880215294662</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37443,7 +37613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N680"/>
+  <dimension ref="A1:N683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79079,6 +79249,214 @@
         </is>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>-37.302043434774,175.9147664652541</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>-37.302672926571525,175.9151936336959</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>-37.303275366641074,175.91570158895544</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>-37.303914281837535,175.91613283799373</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>-37.30451206249484,175.91664519337473</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>-37.30514849594585,175.91707476917392</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>-37.30574475758334,175.91758854259427</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>-37.30633067026634,175.91810824572724</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>-37.306940988772375,175.91858585637294</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>-37.307471824190955,175.91922733861594</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>-37.30787219843196,175.9200042260928</t>
+        </is>
+      </c>
+      <c r="M681" t="inlineStr"/>
+      <c r="N681" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>-37.30195283854226,175.9150061248126</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>-37.30259333489602,175.91540418220507</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>-37.30319569059698,175.91590552669592</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>-37.30380646657139,175.91637637567112</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>-37.30439529658982,175.91688667272257</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>-37.30501617928652,175.91732622007052</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>-37.305617001736785,175.91780718216322</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>-37.306199627304224,175.91832650370833</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>-37.30679045407454,175.9188330625524</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>-37.30729888895859,175.91945012728291</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>-37.30761720471115,175.92017693383136</t>
+        </is>
+      </c>
+      <c r="M682" t="inlineStr">
+        <is>
+          <t>-37.30705266929185,175.92123274905444</t>
+        </is>
+      </c>
+      <c r="N682" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>-37.30190631389073,175.91512919850962</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>-37.302655436466296,175.91523990141388</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>-37.303257977929164,175.915746096982</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>-37.30382022364335,175.91634530071553</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>-37.30444859342941,175.91677645166928</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>-37.30505238446617,175.917257416939</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>-37.30562847344297,175.91778754970275</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>-37.3061787740999,175.918361235535</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>-37.30679662939975,175.91882292154654</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>-37.30737471186383,175.91935244648351</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>-37.30762409643613,175.92017226606944</t>
+        </is>
+      </c>
+      <c r="M683" t="inlineStr"/>
+      <c r="N683" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N683"/>
+  <dimension ref="A1:N684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29574,6 +29574,54 @@
         </is>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>334.18</v>
+      </c>
+      <c r="C684" t="n">
+        <v>342.55</v>
+      </c>
+      <c r="D684" t="n">
+        <v>352.3633333333333</v>
+      </c>
+      <c r="E684" t="n">
+        <v>354.6533333333333</v>
+      </c>
+      <c r="F684" t="n">
+        <v>366.4342105263158</v>
+      </c>
+      <c r="G684" t="n">
+        <v>360.8942105263158</v>
+      </c>
+      <c r="H684" t="n">
+        <v>363.6142105263158</v>
+      </c>
+      <c r="I684" t="n">
+        <v>367.0711764705882</v>
+      </c>
+      <c r="J684" t="n">
+        <v>360.3857142857143</v>
+      </c>
+      <c r="K684" t="n">
+        <v>374.1554545454546</v>
+      </c>
+      <c r="L684" t="n">
+        <v>384.01</v>
+      </c>
+      <c r="M684" t="n">
+        <v>470.6609090909091</v>
+      </c>
+      <c r="N684" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29585,7 +29633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B693"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36523,6 +36571,16 @@
       </c>
       <c r="B693" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -37613,7 +37671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N683"/>
+  <dimension ref="A1:N684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79457,6 +79515,78 @@
         </is>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>-37.301960068279804,175.91498699962824</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>-37.30257958160322,175.91544056445127</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>-37.30319426168354,175.91590918411183</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>-37.30383047353009,175.91632214789368</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>-37.3043953186823,175.9168866270341</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>-37.3050390930703,175.9172826754863</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>-37.30561282613574,175.91781432820488</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>-37.306174043849516,175.91836911394694</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>-37.306788678180865,175.9188359788919</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>-37.30727603593884,175.91947956821372</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>-37.307630671300046,175.92016781291653</t>
+        </is>
+      </c>
+      <c r="M684" t="inlineStr">
+        <is>
+          <t>-37.307084817662215,175.92122022902834</t>
+        </is>
+      </c>
+      <c r="N684" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -36754,28 +36754,28 @@
         <v>0.1471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3114888959356171</v>
+        <v>0.3101143625793639</v>
       </c>
       <c r="J2" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K2" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0256545574253354</v>
+        <v>0.02551984934014828</v>
       </c>
       <c r="M2" t="n">
-        <v>11.27729565733994</v>
+        <v>11.26209976230307</v>
       </c>
       <c r="N2" t="n">
-        <v>208.7078665139844</v>
+        <v>208.3260537549481</v>
       </c>
       <c r="O2" t="n">
-        <v>14.44672511380985</v>
+        <v>14.43350455554534</v>
       </c>
       <c r="P2" t="n">
-        <v>329.9275383658027</v>
+        <v>329.941890081656</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36832,28 +36832,28 @@
         <v>0.1229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4971479552465124</v>
+        <v>0.4958544670193466</v>
       </c>
       <c r="J3" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K3" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0686720054111124</v>
+        <v>0.06855890842562273</v>
       </c>
       <c r="M3" t="n">
-        <v>10.95793310159689</v>
+        <v>10.94373719054682</v>
       </c>
       <c r="N3" t="n">
-        <v>188.4743420317653</v>
+        <v>188.1395524801998</v>
       </c>
       <c r="O3" t="n">
-        <v>13.72859577785599</v>
+        <v>13.71639721210347</v>
       </c>
       <c r="P3" t="n">
-        <v>333.2511846699297</v>
+        <v>333.2646799679285</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36910,28 +36910,28 @@
         <v>0.1062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4724985175791026</v>
+        <v>0.4721737171335623</v>
       </c>
       <c r="J4" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K4" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07098585798518109</v>
+        <v>0.07113147936971798</v>
       </c>
       <c r="M4" t="n">
-        <v>10.42144247335605</v>
+        <v>10.40353933560336</v>
       </c>
       <c r="N4" t="n">
-        <v>164.5793492642372</v>
+        <v>164.2669209300266</v>
       </c>
       <c r="O4" t="n">
-        <v>12.82884832181896</v>
+        <v>12.81666574932914</v>
       </c>
       <c r="P4" t="n">
-        <v>340.9298668960845</v>
+        <v>340.9332457075887</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36988,28 +36988,28 @@
         <v>0.1036</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3999699379085104</v>
+        <v>0.3986934403271384</v>
       </c>
       <c r="J5" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K5" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05463791273185103</v>
+        <v>0.05447855787636535</v>
       </c>
       <c r="M5" t="n">
-        <v>9.599779737879606</v>
+        <v>9.589216320866052</v>
       </c>
       <c r="N5" t="n">
-        <v>155.5976141902464</v>
+        <v>155.3390042986587</v>
       </c>
       <c r="O5" t="n">
-        <v>12.47387727173257</v>
+        <v>12.46350690209857</v>
       </c>
       <c r="P5" t="n">
-        <v>347.988946714976</v>
+        <v>348.0022222672287</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37066,28 +37066,28 @@
         <v>0.1146</v>
       </c>
       <c r="I6" t="n">
-        <v>0.495231134452333</v>
+        <v>0.4967410573252222</v>
       </c>
       <c r="J6" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K6" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08553520224964728</v>
+        <v>0.08626042772319409</v>
       </c>
       <c r="M6" t="n">
-        <v>9.741993322766744</v>
+        <v>9.73274891652839</v>
       </c>
       <c r="N6" t="n">
-        <v>147.8956694706097</v>
+        <v>147.6640561037031</v>
       </c>
       <c r="O6" t="n">
-        <v>12.16123634630171</v>
+        <v>12.15171000739003</v>
       </c>
       <c r="P6" t="n">
-        <v>348.9060747212235</v>
+        <v>348.8903574927015</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37144,28 +37144,28 @@
         <v>0.1166</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4823437716398544</v>
+        <v>0.4814255669633953</v>
       </c>
       <c r="J7" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K7" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07821674501834264</v>
+        <v>0.07818428981069814</v>
       </c>
       <c r="M7" t="n">
-        <v>9.780012433899879</v>
+        <v>9.767619710033085</v>
       </c>
       <c r="N7" t="n">
-        <v>156.5711330243864</v>
+        <v>156.3004121395246</v>
       </c>
       <c r="O7" t="n">
-        <v>12.51283872765834</v>
+        <v>12.50201632295865</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0470395987887</v>
+        <v>351.0564736021989</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37222,28 +37222,28 @@
         <v>0.1132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4519896982863133</v>
+        <v>0.4527208342264342</v>
       </c>
       <c r="J8" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K8" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07518526214965671</v>
+        <v>0.07564681127564643</v>
       </c>
       <c r="M8" t="n">
-        <v>9.601550701129851</v>
+        <v>9.588334843085814</v>
       </c>
       <c r="N8" t="n">
-        <v>142.6414161337967</v>
+        <v>142.3954978175998</v>
       </c>
       <c r="O8" t="n">
-        <v>11.94325818752139</v>
+        <v>11.93295846877881</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5583592770203</v>
+        <v>349.5508446181532</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37300,28 +37300,28 @@
         <v>0.1012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4790290540753863</v>
+        <v>0.4813463315762563</v>
       </c>
       <c r="J9" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K9" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08869377660427735</v>
+        <v>0.08970779811287555</v>
       </c>
       <c r="M9" t="n">
-        <v>9.181073602005027</v>
+        <v>9.177462577543107</v>
       </c>
       <c r="N9" t="n">
-        <v>133.7519871141101</v>
+        <v>133.596663216072</v>
       </c>
       <c r="O9" t="n">
-        <v>11.56511941633592</v>
+        <v>11.55840227782681</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5743665000448</v>
+        <v>347.5505041998351</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37378,28 +37378,28 @@
         <v>0.1371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3485557882569534</v>
+        <v>0.3491054326678484</v>
       </c>
       <c r="J10" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K10" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04584729476364868</v>
+        <v>0.04613492632195171</v>
       </c>
       <c r="M10" t="n">
-        <v>9.398435782282245</v>
+        <v>9.384412629787128</v>
       </c>
       <c r="N10" t="n">
-        <v>145.7796341893532</v>
+        <v>145.5206051217167</v>
       </c>
       <c r="O10" t="n">
-        <v>12.07392372799138</v>
+        <v>12.06319216135251</v>
       </c>
       <c r="P10" t="n">
-        <v>349.5862680132205</v>
+        <v>349.580663517428</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37456,28 +37456,28 @@
         <v>0.1413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3725848918544575</v>
+        <v>0.3742726547389614</v>
       </c>
       <c r="J11" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K11" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05183884287364426</v>
+        <v>0.05244252002045968</v>
       </c>
       <c r="M11" t="n">
-        <v>9.511558273133744</v>
+        <v>9.503598182167226</v>
       </c>
       <c r="N11" t="n">
-        <v>144.7889470313293</v>
+        <v>144.5692378169668</v>
       </c>
       <c r="O11" t="n">
-        <v>12.0328278900402</v>
+        <v>12.02369484879614</v>
       </c>
       <c r="P11" t="n">
-        <v>359.3633986146276</v>
+        <v>359.3460497362636</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37534,28 +37534,28 @@
         <v>0.1679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3612309078812893</v>
+        <v>0.3624164187730289</v>
       </c>
       <c r="J12" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K12" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05657397781768825</v>
+        <v>0.05710340222602961</v>
       </c>
       <c r="M12" t="n">
-        <v>8.92642315863127</v>
+        <v>8.916167606680707</v>
       </c>
       <c r="N12" t="n">
-        <v>124.0114903653589</v>
+        <v>123.7998974381439</v>
       </c>
       <c r="O12" t="n">
-        <v>11.13604464634364</v>
+        <v>11.12654022767832</v>
       </c>
       <c r="P12" t="n">
-        <v>371.070338141068</v>
+        <v>371.0580746170234</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37612,28 +37612,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2844363254038199</v>
+        <v>0.2930359103928438</v>
       </c>
       <c r="J13" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K13" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007073400456063306</v>
+        <v>0.007524897456268387</v>
       </c>
       <c r="M13" t="n">
-        <v>19.24283860353216</v>
+        <v>19.24203472683976</v>
       </c>
       <c r="N13" t="n">
-        <v>632.7903171466232</v>
+        <v>632.270474257946</v>
       </c>
       <c r="O13" t="n">
-        <v>25.15532383307007</v>
+        <v>25.14498904867421</v>
       </c>
       <c r="P13" t="n">
-        <v>442.880215294662</v>
+        <v>442.7894446075601</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0199/nzd0199.xlsx
+++ b/data/nzd0199/nzd0199.xlsx
@@ -36745,13 +36745,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1022</v>
+        <v>0.078</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1471</v>
+        <v>0.1015</v>
       </c>
       <c r="I2" t="n">
         <v>0.3100990599903534</v>
@@ -36823,13 +36823,13 @@
         <v>0.09139490105672389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0842</v>
+        <v>0.0852</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1229</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
         <v>0.4958544670193469</v>
@@ -36901,13 +36901,13 @@
         <v>0.1827898021134478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0757</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1062</v>
+        <v>0.1187</v>
       </c>
       <c r="I4" t="n">
         <v>0.4721711911094064</v>
@@ -36979,13 +36979,13 @@
         <v>0.2740944055950395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0759</v>
+        <v>0.0914</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1036</v>
+        <v>0.132</v>
       </c>
       <c r="I5" t="n">
         <v>0.3986921916553454</v>
@@ -37057,13 +37057,13 @@
         <v>0.3654893066527279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0834</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1146</v>
+        <v>0.1263</v>
       </c>
       <c r="I6" t="n">
         <v>0.4966992054843338</v>
@@ -37135,13 +37135,13 @@
         <v>0.4568842077087104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0786</v>
+        <v>0.0871</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1166</v>
+        <v>0.1159</v>
       </c>
       <c r="I7" t="n">
         <v>0.4813886788283709</v>
@@ -37216,10 +37216,10 @@
         <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0808</v>
+        <v>0.0814</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1132</v>
+        <v>0.1122</v>
       </c>
       <c r="I8" t="n">
         <v>0.4526847539208647</v>
@@ -37291,13 +37291,13 @@
         <v>0.6395982464823191</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0732</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1012</v>
+        <v>0.123</v>
       </c>
       <c r="I9" t="n">
         <v>0.4813543556369754</v>
@@ -37369,13 +37369,13 @@
         <v>0.7309913184653081</v>
       </c>
       <c r="F10" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.1016</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1371</v>
+        <v>0.1304</v>
       </c>
       <c r="I10" t="n">
         <v>0.3490726050843478</v>
@@ -37447,13 +37447,13 @@
         <v>0.8223862195202624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0905</v>
+        <v>0.123</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1413</v>
+        <v>0.169</v>
       </c>
       <c r="I11" t="n">
         <v>0.374298495562419</v>
@@ -37525,13 +37525,13 @@
         <v>0.9127680691771044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.125</v>
+        <v>0.11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1003</v>
+        <v>0.0885</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1679</v>
+        <v>0.1501</v>
       </c>
       <c r="I12" t="n">
         <v>0.362416418773029</v>
@@ -37603,13 +37603,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0469</v>
+        <v>0.024</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0291</v>
       </c>
       <c r="I13" t="n">
         <v>0.2930250316006717</v>
